--- a/Results/Baseline/Price/Results_world_base_price_Min.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Min.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>291.1428002258193</v>
+        <v>291.1427982260567</v>
       </c>
       <c r="E2">
-        <v>336.2420344760752</v>
+        <v>336.2420309138267</v>
       </c>
       <c r="F2">
-        <v>555.8175114228079</v>
+        <v>555.817504540306</v>
       </c>
       <c r="G2">
-        <v>411.7943656123927</v>
+        <v>411.7943530405038</v>
       </c>
       <c r="H2">
-        <v>1054.45525874165</v>
+        <v>1054.455239906088</v>
       </c>
       <c r="I2">
-        <v>605.8875346082972</v>
+        <v>605.8875011783937</v>
       </c>
       <c r="J2">
-        <v>676.1396992655723</v>
+        <v>676.1396376279085</v>
       </c>
       <c r="K2">
-        <v>777.7332817894484</v>
+        <v>777.7331582317508</v>
       </c>
       <c r="L2">
-        <v>619.9946860060501</v>
+        <v>619.9944353598821</v>
       </c>
       <c r="M2">
-        <v>760.9638939667748</v>
+        <v>760.9632734439244</v>
       </c>
       <c r="N2">
-        <v>386.9359948236765</v>
+        <v>386.9342959422164</v>
       </c>
       <c r="O2">
-        <v>431.1768318199834</v>
+        <v>431.1727683452199</v>
       </c>
       <c r="P2">
-        <v>867.4971189059628</v>
+        <v>867.4866054239075</v>
       </c>
       <c r="Q2">
-        <v>886.20362660827</v>
+        <v>886.1812623239579</v>
       </c>
       <c r="R2">
-        <v>905.6822284146222</v>
+        <v>905.6477351279319</v>
       </c>
       <c r="S2">
-        <v>2222.09579655418</v>
+        <v>2222.063198930992</v>
       </c>
       <c r="T2">
-        <v>2213.305795787937</v>
+        <v>2213.28577701512</v>
       </c>
       <c r="U2">
-        <v>2216.206137281984</v>
+        <v>2216.188788708248</v>
       </c>
       <c r="V2">
-        <v>2233.36401890834</v>
+        <v>2233.337381598985</v>
       </c>
       <c r="W2">
-        <v>2252.157893444202</v>
+        <v>2252.120615811175</v>
       </c>
       <c r="X2">
-        <v>2082.665858310134</v>
+        <v>2082.614924254702</v>
       </c>
       <c r="Y2">
-        <v>2109.573954268112</v>
+        <v>2109.505509108246</v>
       </c>
       <c r="Z2">
-        <v>2129.681046686565</v>
+        <v>2129.600932013147</v>
       </c>
       <c r="AA2">
-        <v>2153.739304977274</v>
+        <v>2153.644248561101</v>
       </c>
       <c r="AB2">
-        <v>2221.151877748007</v>
+        <v>2221.005494898369</v>
       </c>
       <c r="AC2">
-        <v>832.8964466838702</v>
+        <v>832.6646706075081</v>
       </c>
       <c r="AD2">
-        <v>955.3304981951751</v>
+        <v>955.0014101913293</v>
       </c>
       <c r="AE2">
-        <v>1073.914855838354</v>
+        <v>1073.491605672878</v>
       </c>
       <c r="AF2">
-        <v>1063.747571092308</v>
+        <v>1063.337965000313</v>
       </c>
       <c r="AG2">
-        <v>1019.5928728096</v>
+        <v>1019.225354584261</v>
       </c>
       <c r="AH2">
-        <v>808.5668631106194</v>
+        <v>808.2071466151319</v>
       </c>
       <c r="AI2">
-        <v>780.809763456803</v>
+        <v>780.4778355882177</v>
       </c>
       <c r="AJ2">
-        <v>745.1085832496111</v>
+        <v>744.810416097008</v>
       </c>
       <c r="AK2">
-        <v>721.2460876971975</v>
+        <v>720.9707487011708</v>
       </c>
       <c r="AL2">
-        <v>819.4269439306</v>
+        <v>819.0709169692346</v>
       </c>
       <c r="AM2">
-        <v>1039.817747166364</v>
+        <v>1039.277692948158</v>
       </c>
       <c r="AN2">
-        <v>1282.559370569895</v>
+        <v>1281.816065000603</v>
       </c>
       <c r="AO2">
-        <v>1627.514664649927</v>
+        <v>1626.48093059329</v>
       </c>
       <c r="AP2">
-        <v>2069.958978714334</v>
+        <v>2068.551795874267</v>
       </c>
       <c r="AQ2">
-        <v>2297.699801333066</v>
+        <v>2296.102175233551</v>
       </c>
       <c r="AR2">
-        <v>2321.33026493548</v>
+        <v>2319.716580734037</v>
       </c>
       <c r="AS2">
-        <v>2319.703439580036</v>
+        <v>2318.095648991427</v>
       </c>
       <c r="AT2">
-        <v>2294.204485501994</v>
+        <v>2292.623437937882</v>
       </c>
       <c r="AU2">
-        <v>2248.558507452122</v>
+        <v>2247.021929057843</v>
       </c>
       <c r="AV2">
-        <v>2232.861664325971</v>
+        <v>2231.354549036737</v>
       </c>
       <c r="AW2">
-        <v>2202.024099472405</v>
+        <v>2200.55353875224</v>
       </c>
       <c r="AX2">
-        <v>2318.093810619981</v>
+        <v>2316.736669584744</v>
       </c>
       <c r="AY2">
-        <v>2025.546956648279</v>
+        <v>2024.448095190136</v>
       </c>
       <c r="AZ2">
-        <v>1624.655957811262</v>
+        <v>1623.908248456388</v>
       </c>
       <c r="BA2">
-        <v>1454.842810315537</v>
+        <v>1454.24944986079</v>
       </c>
       <c r="BB2">
-        <v>1446.9620346185</v>
+        <v>1446.359892655324</v>
       </c>
       <c r="BC2">
-        <v>1423.642825833155</v>
+        <v>1423.069594324838</v>
       </c>
       <c r="BD2">
-        <v>1347.414188657271</v>
+        <v>1346.914306936199</v>
       </c>
       <c r="BE2">
-        <v>1256.735983832056</v>
+        <v>1256.321298362878</v>
       </c>
       <c r="BF2">
-        <v>1204.544244739079</v>
+        <v>1204.181262943902</v>
       </c>
       <c r="BG2">
-        <v>1173.674821857541</v>
+        <v>1173.320072860096</v>
       </c>
       <c r="BH2">
-        <v>1227.574931266609</v>
+        <v>1227.180765365111</v>
       </c>
       <c r="BI2">
-        <v>1366.638785748273</v>
+        <v>1366.132648017936</v>
       </c>
       <c r="BJ2">
-        <v>1589.888164316688</v>
+        <v>1589.198466003818</v>
       </c>
       <c r="BK2">
-        <v>1870.588315233009</v>
+        <v>1869.666049356877</v>
       </c>
       <c r="BL2">
-        <v>2160.785328026647</v>
+        <v>2159.60375886605</v>
       </c>
       <c r="BM2">
-        <v>2443.692792265739</v>
+        <v>2442.276862797361</v>
       </c>
       <c r="BN2">
-        <v>2612.91364280677</v>
+        <v>2611.360212051226</v>
       </c>
       <c r="BO2">
-        <v>2663.585984443456</v>
+        <v>2661.996137646362</v>
       </c>
       <c r="BP2">
-        <v>2658.570685162517</v>
+        <v>2656.992031327542</v>
       </c>
       <c r="BQ2">
-        <v>2620.848010856745</v>
+        <v>2619.295978659236</v>
       </c>
       <c r="BR2">
-        <v>2592.15017356361</v>
+        <v>2590.630457417952</v>
       </c>
       <c r="BS2">
-        <v>2563.967024211275</v>
+        <v>2562.479522432428</v>
       </c>
       <c r="BT2">
-        <v>2525.155639907669</v>
+        <v>2523.70982824481</v>
       </c>
       <c r="BU2">
-        <v>2431.4805346597</v>
+        <v>2430.123636399227</v>
       </c>
       <c r="BV2">
-        <v>2214.381599981008</v>
+        <v>2213.206846887189</v>
       </c>
       <c r="BW2">
-        <v>1981.809742428599</v>
+        <v>1980.843381984297</v>
       </c>
       <c r="BX2">
-        <v>1842.863747254714</v>
+        <v>1842.025986656273</v>
       </c>
       <c r="BY2">
-        <v>1789.869002388431</v>
+        <v>1789.086327822999</v>
       </c>
       <c r="BZ2">
-        <v>1749.68808402254</v>
+        <v>1748.94919433622</v>
       </c>
       <c r="CA2">
-        <v>1677.73017630911</v>
+        <v>1677.048870511811</v>
       </c>
       <c r="CB2">
-        <v>1624.104949205424</v>
+        <v>1623.478777236516</v>
       </c>
       <c r="CC2">
-        <v>1601.259971355125</v>
+        <v>1600.662428093827</v>
       </c>
       <c r="CD2">
-        <v>1629.12713090069</v>
+        <v>1628.514776713288</v>
       </c>
       <c r="CE2">
-        <v>1725.232968175701</v>
+        <v>1724.547600005271</v>
       </c>
       <c r="CF2">
-        <v>1877.613612114594</v>
+        <v>1876.792805442226</v>
       </c>
       <c r="CG2">
-        <v>2107.083430333984</v>
+        <v>2106.076759534486</v>
       </c>
       <c r="CH2">
-        <v>2367.273828650071</v>
+        <v>2366.055111979047</v>
       </c>
       <c r="CI2">
-        <v>2620.009442888641</v>
+        <v>2618.584941050453</v>
       </c>
       <c r="CJ2">
-        <v>2825.228934005646</v>
+        <v>2823.639038942161</v>
       </c>
       <c r="CK2">
-        <v>2926.477000075658</v>
+        <v>2924.790126932437</v>
       </c>
       <c r="CL2">
-        <v>2971.781280367519</v>
+        <v>2970.065808321967</v>
       </c>
       <c r="CM2">
-        <v>2966.905040787914</v>
+        <v>2965.203783897718</v>
       </c>
       <c r="CN2">
-        <v>2939.641305266015</v>
+        <v>2937.973451062789</v>
       </c>
       <c r="CO2">
-        <v>2903.488704806966</v>
+        <v>2901.861995192102</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18.32302401712911</v>
+        <v>18.32302388542445</v>
       </c>
       <c r="E3">
-        <v>21.28825372539705</v>
+        <v>21.28825349084141</v>
       </c>
       <c r="F3">
-        <v>35.90355651667324</v>
+        <v>35.90355606392396</v>
       </c>
       <c r="G3">
-        <v>26.23143968962362</v>
+        <v>26.23143886533576</v>
       </c>
       <c r="H3">
-        <v>69.50503200866427</v>
+        <v>69.50503078616698</v>
       </c>
       <c r="I3">
-        <v>39.36464527662356</v>
+        <v>39.36464316670175</v>
       </c>
       <c r="J3">
-        <v>43.95803746189044</v>
+        <v>43.95803383001879</v>
       </c>
       <c r="K3">
-        <v>50.61124486730238</v>
+        <v>50.61123858091855</v>
       </c>
       <c r="L3">
-        <v>40.06689604002167</v>
+        <v>40.06688619789421</v>
       </c>
       <c r="M3">
-        <v>49.45381377210668</v>
+        <v>49.45379678671114</v>
       </c>
       <c r="N3">
-        <v>24.16783067518236</v>
+        <v>24.16779931130342</v>
       </c>
       <c r="O3">
-        <v>27.29964161624254</v>
+        <v>27.29958887654422</v>
       </c>
       <c r="P3">
-        <v>56.5125412724182</v>
+        <v>56.51243938640041</v>
       </c>
       <c r="Q3">
-        <v>57.73461456833863</v>
+        <v>57.73444902878284</v>
       </c>
       <c r="R3">
-        <v>59.00910455750871</v>
+        <v>59.00889887798625</v>
       </c>
       <c r="S3">
-        <v>147.3439297257546</v>
+        <v>147.3437116204357</v>
       </c>
       <c r="T3">
-        <v>146.6949866576102</v>
+        <v>146.6947488778134</v>
       </c>
       <c r="U3">
-        <v>146.8370134950744</v>
+        <v>146.8367426636241</v>
       </c>
       <c r="V3">
-        <v>147.9437813311517</v>
+        <v>147.943470649432</v>
       </c>
       <c r="W3">
-        <v>149.1612408536039</v>
+        <v>149.1608892577914</v>
       </c>
       <c r="X3">
-        <v>137.7390929577483</v>
+        <v>137.7386971742386</v>
       </c>
       <c r="Y3">
-        <v>139.5074875180983</v>
+        <v>139.5070390226099</v>
       </c>
       <c r="Z3">
-        <v>140.8157341511803</v>
+        <v>140.8152432497756</v>
       </c>
       <c r="AA3">
-        <v>142.3913453836763</v>
+        <v>142.3908118296478</v>
       </c>
       <c r="AB3">
-        <v>146.9005713939927</v>
+        <v>146.899976884565</v>
       </c>
       <c r="AC3">
-        <v>53.69396615647025</v>
+        <v>53.69329812615926</v>
       </c>
       <c r="AD3">
-        <v>61.92489477222312</v>
+        <v>61.92413288309554</v>
       </c>
       <c r="AE3">
-        <v>69.89514089596503</v>
+        <v>69.89426791062857</v>
       </c>
       <c r="AF3">
-        <v>69.1528347280649</v>
+        <v>69.15185989411451</v>
       </c>
       <c r="AG3">
-        <v>66.1103842513816</v>
+        <v>66.10928850270979</v>
       </c>
       <c r="AH3">
-        <v>51.88443176276039</v>
+        <v>51.88316262206389</v>
       </c>
       <c r="AI3">
-        <v>49.94873533157167</v>
+        <v>49.94722117279394</v>
       </c>
       <c r="AJ3">
-        <v>47.47463051736398</v>
+        <v>47.47278115901688</v>
       </c>
       <c r="AK3">
-        <v>45.80056381952217</v>
+        <v>45.79825816252499</v>
       </c>
       <c r="AL3">
-        <v>52.38368969771472</v>
+        <v>52.38076167522414</v>
       </c>
       <c r="AM3">
-        <v>67.23499518696671</v>
+        <v>67.2313021111857</v>
       </c>
       <c r="AN3">
-        <v>83.59809544759413</v>
+        <v>83.59356358195072</v>
       </c>
       <c r="AO3">
-        <v>106.8767091861735</v>
+        <v>106.8711845657436</v>
       </c>
       <c r="AP3">
-        <v>136.751427254563</v>
+        <v>136.7447883056915</v>
       </c>
       <c r="AQ3">
-        <v>152.099534284846</v>
+        <v>152.0920724490579</v>
       </c>
       <c r="AR3">
-        <v>153.6361153921421</v>
+        <v>153.628143784994</v>
       </c>
       <c r="AS3">
-        <v>153.4647013719075</v>
+        <v>153.4563437261347</v>
       </c>
       <c r="AT3">
-        <v>151.6792653615952</v>
+        <v>151.6706682573652</v>
       </c>
       <c r="AU3">
-        <v>148.5320302401782</v>
+        <v>148.5233531624454</v>
       </c>
       <c r="AV3">
-        <v>147.4039330546271</v>
+        <v>147.3952983166288</v>
       </c>
       <c r="AW3">
-        <v>145.2538263770258</v>
+        <v>145.2453924534694</v>
       </c>
       <c r="AX3">
-        <v>152.9267570046798</v>
+        <v>152.9187810430807</v>
       </c>
       <c r="AY3">
-        <v>133.0745190429566</v>
+        <v>133.0673429490755</v>
       </c>
       <c r="AZ3">
-        <v>105.8926122346764</v>
+        <v>105.8864653200044</v>
       </c>
       <c r="BA3">
-        <v>94.34581714266058</v>
+        <v>94.34044602667856</v>
       </c>
       <c r="BB3">
-        <v>93.76485250174974</v>
+        <v>93.7599899901078</v>
       </c>
       <c r="BC3">
-        <v>92.12327142983986</v>
+        <v>92.11889638249356</v>
       </c>
       <c r="BD3">
-        <v>86.90102375848836</v>
+        <v>86.89711466422962</v>
       </c>
       <c r="BE3">
-        <v>80.70019797360054</v>
+        <v>80.69667950280352</v>
       </c>
       <c r="BF3">
-        <v>77.10218488277849</v>
+        <v>77.0988864364133</v>
       </c>
       <c r="BG3">
-        <v>74.9560041605487</v>
+        <v>74.95273063087571</v>
       </c>
       <c r="BH3">
-        <v>78.52905213779998</v>
+        <v>78.52562558425781</v>
       </c>
       <c r="BI3">
-        <v>87.86349396243243</v>
+        <v>87.85973690494212</v>
       </c>
       <c r="BJ3">
-        <v>102.8933357614627</v>
+        <v>102.8890922963263</v>
       </c>
       <c r="BK3">
-        <v>121.8097472430272</v>
+        <v>121.8048944523408</v>
       </c>
       <c r="BL3">
-        <v>141.3758151222322</v>
+        <v>141.3702711159612</v>
       </c>
       <c r="BM3">
-        <v>160.4370003156834</v>
+        <v>160.4307773622104</v>
       </c>
       <c r="BN3">
-        <v>171.806072171065</v>
+        <v>171.7993058176134</v>
       </c>
       <c r="BO3">
-        <v>175.1542503795208</v>
+        <v>175.1470999842902</v>
       </c>
       <c r="BP3">
-        <v>174.7348661989876</v>
+        <v>174.7274290050227</v>
       </c>
       <c r="BQ3">
-        <v>172.105008724039</v>
+        <v>172.0973479043486</v>
       </c>
       <c r="BR3">
-        <v>170.0783193586134</v>
+        <v>170.0704949901635</v>
       </c>
       <c r="BS3">
-        <v>168.08706764282</v>
+        <v>168.0791420136004</v>
       </c>
       <c r="BT3">
-        <v>165.3774104156831</v>
+        <v>165.3694695120518</v>
       </c>
       <c r="BU3">
-        <v>158.9564224207467</v>
+        <v>158.9486133201845</v>
       </c>
       <c r="BV3">
-        <v>144.1879540238418</v>
+        <v>144.1804883085729</v>
       </c>
       <c r="BW3">
-        <v>128.3654120577361</v>
+        <v>128.3583876137668</v>
       </c>
       <c r="BX3">
-        <v>118.8779838010339</v>
+        <v>118.8713176875459</v>
       </c>
       <c r="BY3">
-        <v>115.2061807100434</v>
+        <v>115.199773539966</v>
       </c>
       <c r="BZ3">
-        <v>112.4013605673196</v>
+        <v>112.3951875943371</v>
       </c>
       <c r="CA3">
-        <v>107.4492515834727</v>
+        <v>107.4433179254804</v>
       </c>
       <c r="CB3">
-        <v>103.7291890575252</v>
+        <v>103.7234688414072</v>
       </c>
       <c r="CC3">
-        <v>102.0914112454279</v>
+        <v>102.0858318932751</v>
       </c>
       <c r="CD3">
-        <v>103.8844362054413</v>
+        <v>103.8788945882279</v>
       </c>
       <c r="CE3">
-        <v>110.2941263509338</v>
+        <v>110.2885026751298</v>
       </c>
       <c r="CF3">
-        <v>120.5142183735436</v>
+        <v>120.5083935449013</v>
       </c>
       <c r="CG3">
-        <v>135.9406312169086</v>
+        <v>135.9345031654463</v>
       </c>
       <c r="CH3">
-        <v>153.4452237988046</v>
+        <v>153.4387200397332</v>
       </c>
       <c r="CI3">
-        <v>170.4450463129906</v>
+        <v>170.4381399393942</v>
       </c>
       <c r="CJ3">
-        <v>184.229605928572</v>
+        <v>184.2223254130613</v>
       </c>
       <c r="CK3">
-        <v>190.9861717997141</v>
+        <v>190.9785961255045</v>
       </c>
       <c r="CL3">
-        <v>193.944885922655</v>
+        <v>193.9371049039974</v>
       </c>
       <c r="CM3">
-        <v>193.5083769159565</v>
+        <v>193.5004539987076</v>
       </c>
       <c r="CN3">
-        <v>191.5572269663811</v>
+        <v>191.5492015203315</v>
       </c>
       <c r="CO3">
-        <v>189.0048519433138</v>
+        <v>188.9967565374654</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>29416044.31082699</v>
+        <v>29416021.22298668</v>
       </c>
       <c r="E4">
-        <v>29752584.60050818</v>
+        <v>29752543.48256733</v>
       </c>
       <c r="F4">
-        <v>32640439.59242295</v>
+        <v>32640360.22263275</v>
       </c>
       <c r="G4">
-        <v>32742197.31153161</v>
+        <v>32742052.79617395</v>
       </c>
       <c r="H4">
-        <v>29814692.10599102</v>
+        <v>29814477.72354999</v>
       </c>
       <c r="I4">
-        <v>29244659.45121047</v>
+        <v>29244289.21199537</v>
       </c>
       <c r="J4">
-        <v>32254441.08118431</v>
+        <v>32253802.80747936</v>
       </c>
       <c r="K4">
-        <v>36500325.546523</v>
+        <v>36499217.00607385</v>
       </c>
       <c r="L4">
-        <v>36254463.65401104</v>
+        <v>36252716.06129785</v>
       </c>
       <c r="M4">
-        <v>38568997.18802275</v>
+        <v>38565943.90993576</v>
       </c>
       <c r="N4">
-        <v>41746015.83671497</v>
+        <v>41740276.02982489</v>
       </c>
       <c r="O4">
-        <v>38739638.32064811</v>
+        <v>38729793.18795399</v>
       </c>
       <c r="P4">
-        <v>43040297.11221047</v>
+        <v>43020977.52098526</v>
       </c>
       <c r="Q4">
-        <v>44534048.41803575</v>
+        <v>44502432.37994969</v>
       </c>
       <c r="R4">
-        <v>46010494.12501393</v>
+        <v>45971307.43048685</v>
       </c>
       <c r="S4">
-        <v>52550013.87357889</v>
+        <v>52508810.02126887</v>
       </c>
       <c r="T4">
-        <v>54161078.70297418</v>
+        <v>54116493.17810636</v>
       </c>
       <c r="U4">
-        <v>55780852.70842662</v>
+        <v>55730319.43964383</v>
       </c>
       <c r="V4">
-        <v>57404578.11155821</v>
+        <v>57346829.84775066</v>
       </c>
       <c r="W4">
-        <v>59028603.96098594</v>
+        <v>58963494.23694084</v>
       </c>
       <c r="X4">
-        <v>60120884.99077404</v>
+        <v>60047821.95127807</v>
       </c>
       <c r="Y4">
-        <v>61645423.92945784</v>
+        <v>61562769.84501933</v>
       </c>
       <c r="Z4">
-        <v>63162495.76936515</v>
+        <v>63072335.13816144</v>
       </c>
       <c r="AA4">
-        <v>64679222.0706604</v>
+        <v>64581569.48084066</v>
       </c>
       <c r="AB4">
-        <v>66207041.67458794</v>
+        <v>66098393.0897158</v>
       </c>
       <c r="AC4">
-        <v>62018588.17979053</v>
+        <v>61896639.36876549</v>
       </c>
       <c r="AD4">
-        <v>63570402.41958348</v>
+        <v>63431399.12907967</v>
       </c>
       <c r="AE4">
-        <v>65132030.18522914</v>
+        <v>64972967.259581</v>
       </c>
       <c r="AF4">
-        <v>66687308.52298565</v>
+        <v>66510542.16061869</v>
       </c>
       <c r="AG4">
-        <v>68252100.01752295</v>
+        <v>68054644.84722047</v>
       </c>
       <c r="AH4">
-        <v>68861518.28966865</v>
+        <v>68634037.75643414</v>
       </c>
       <c r="AI4">
-        <v>70525790.21964175</v>
+        <v>70255329.93805179</v>
       </c>
       <c r="AJ4">
-        <v>72245802.28453414</v>
+        <v>71915905.41789639</v>
       </c>
       <c r="AK4">
-        <v>74042494.21569139</v>
+        <v>73630679.49324371</v>
       </c>
       <c r="AL4">
-        <v>75944644.98400928</v>
+        <v>75419569.940366</v>
       </c>
       <c r="AM4">
-        <v>77906298.2417659</v>
+        <v>77241107.75630754</v>
       </c>
       <c r="AN4">
-        <v>79913223.08872479</v>
+        <v>79094381.34710181</v>
       </c>
       <c r="AO4">
-        <v>82022996.43206833</v>
+        <v>81020707.48987173</v>
       </c>
       <c r="AP4">
-        <v>84216126.42097163</v>
+        <v>83006456.77812411</v>
       </c>
       <c r="AQ4">
-        <v>86211171.59962866</v>
+        <v>84851142.40272292</v>
       </c>
       <c r="AR4">
-        <v>87980849.76847978</v>
+        <v>86531074.8397374</v>
       </c>
       <c r="AS4">
-        <v>89675456.12374836</v>
+        <v>88158456.47461385</v>
       </c>
       <c r="AT4">
-        <v>91282514.70248616</v>
+        <v>89724728.64247914</v>
       </c>
       <c r="AU4">
-        <v>92795544.57361679</v>
+        <v>91225522.44343697</v>
       </c>
       <c r="AV4">
-        <v>94799091.35529892</v>
+        <v>93237822.21814889</v>
       </c>
       <c r="AW4">
-        <v>96408886.92447709</v>
+        <v>94884538.8350106</v>
       </c>
       <c r="AX4">
-        <v>97929598.38215117</v>
+        <v>96490119.82395335</v>
       </c>
       <c r="AY4">
-        <v>98995452.1313674</v>
+        <v>97706040.28430352</v>
       </c>
       <c r="AZ4">
-        <v>99911806.04799516</v>
+        <v>98816075.2169123</v>
       </c>
       <c r="BA4">
-        <v>101008277.4079192</v>
+        <v>100055234.261196</v>
       </c>
       <c r="BB4">
-        <v>102280884.1041173</v>
+        <v>101417590.8865955</v>
       </c>
       <c r="BC4">
-        <v>103673998.8150957</v>
+        <v>102896893.8044493</v>
       </c>
       <c r="BD4">
-        <v>105075446.8523725</v>
+        <v>104381597.4920744</v>
       </c>
       <c r="BE4">
-        <v>106518809.6537873</v>
+        <v>105895222.9948742</v>
       </c>
       <c r="BF4">
-        <v>108068026.5626056</v>
+        <v>107483271.7659666</v>
       </c>
       <c r="BG4">
-        <v>109716720.8974988</v>
+        <v>109134707.4459112</v>
       </c>
       <c r="BH4">
-        <v>111581611.3038848</v>
+        <v>110969623.0037435</v>
       </c>
       <c r="BI4">
-        <v>113556149.8540718</v>
+        <v>112881363.0289317</v>
       </c>
       <c r="BJ4">
-        <v>115627187.8523742</v>
+        <v>114860699.8697547</v>
       </c>
       <c r="BK4">
-        <v>117774717.1736789</v>
+        <v>116893716.5288364</v>
       </c>
       <c r="BL4">
-        <v>119948973.0149813</v>
+        <v>118938309.2111653</v>
       </c>
       <c r="BM4">
-        <v>122191654.8917521</v>
+        <v>121054350.5638746</v>
       </c>
       <c r="BN4">
-        <v>124339658.7753286</v>
+        <v>123102689.750113</v>
       </c>
       <c r="BO4">
-        <v>126378528.1076207</v>
+        <v>125073205.6557889</v>
       </c>
       <c r="BP4">
-        <v>128352906.2415843</v>
+        <v>126997937.873684</v>
       </c>
       <c r="BQ4">
-        <v>130352831.5575831</v>
+        <v>128959902.8341792</v>
       </c>
       <c r="BR4">
-        <v>132372738.5747653</v>
+        <v>130952681.8221969</v>
       </c>
       <c r="BS4">
-        <v>134356104.4542237</v>
+        <v>132920005.0500755</v>
       </c>
       <c r="BT4">
-        <v>136287124.1392781</v>
+        <v>134850629.5191502</v>
       </c>
       <c r="BU4">
-        <v>138123835.208558</v>
+        <v>136714610.2152199</v>
       </c>
       <c r="BV4">
-        <v>139854245.0257526</v>
+        <v>138512716.8251173</v>
       </c>
       <c r="BW4">
-        <v>141578600.9169026</v>
+        <v>140322825.9200846</v>
       </c>
       <c r="BX4">
-        <v>143366645.8104305</v>
+        <v>142179120.5369937</v>
       </c>
       <c r="BY4">
-        <v>145228800.273547</v>
+        <v>144089007.9226297</v>
       </c>
       <c r="BZ4">
-        <v>147111997.7397802</v>
+        <v>146014466.6018847</v>
       </c>
       <c r="CA4">
-        <v>149030849.9170364</v>
+        <v>147976350.4626343</v>
       </c>
       <c r="CB4">
-        <v>151024653.9311018</v>
+        <v>150008187.4019711</v>
       </c>
       <c r="CC4">
-        <v>153066459.2414953</v>
+        <v>152074131.109218</v>
       </c>
       <c r="CD4">
-        <v>155175650.3370327</v>
+        <v>154187813.7129978</v>
       </c>
       <c r="CE4">
-        <v>157362227.1031178</v>
+        <v>156356156.9054005</v>
       </c>
       <c r="CF4">
-        <v>159659999.3634616</v>
+        <v>158613236.1250404</v>
       </c>
       <c r="CG4">
-        <v>162086356.8986615</v>
+        <v>160979838.7522834</v>
       </c>
       <c r="CH4">
-        <v>164556724.3703943</v>
+        <v>163377183.1053597</v>
       </c>
       <c r="CI4">
-        <v>167040464.7183033</v>
+        <v>165783516.9912697</v>
       </c>
       <c r="CJ4">
-        <v>169500332.1551361</v>
+        <v>168172365.4773826</v>
       </c>
       <c r="CK4">
-        <v>171907851.5692799</v>
+        <v>170525028.05167</v>
       </c>
       <c r="CL4">
-        <v>174339780.1028036</v>
+        <v>172920179.0640727</v>
       </c>
       <c r="CM4">
-        <v>176727190.7278347</v>
+        <v>175283456.6818862</v>
       </c>
       <c r="CN4">
-        <v>179087844.2559292</v>
+        <v>177627650.6234123</v>
       </c>
       <c r="CO4">
-        <v>181427445.1164086</v>
+        <v>179956929.8175204</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1883240.117134776</v>
+        <v>1883239.867233883</v>
       </c>
       <c r="E5">
-        <v>1106877.702337034</v>
+        <v>1106877.257309693</v>
       </c>
       <c r="F5">
-        <v>555101.989720453</v>
+        <v>555101.1308931125</v>
       </c>
       <c r="G5">
-        <v>341659.1776877098</v>
+        <v>341657.615132743</v>
       </c>
       <c r="H5">
-        <v>320656.7809959411</v>
+        <v>320654.4679719955</v>
       </c>
       <c r="I5">
-        <v>228602.5919864528</v>
+        <v>228598.6195443779</v>
       </c>
       <c r="J5">
-        <v>188757.222838685</v>
+        <v>188750.46628314</v>
       </c>
       <c r="K5">
-        <v>245066.4083871534</v>
+        <v>245055.0285685498</v>
       </c>
       <c r="L5">
-        <v>443015.4024991712</v>
+        <v>442998.5953207531</v>
       </c>
       <c r="M5">
-        <v>393117.4079019772</v>
+        <v>393091.5325491357</v>
       </c>
       <c r="N5">
-        <v>498385.5700713037</v>
+        <v>498346.3394774286</v>
       </c>
       <c r="O5">
-        <v>625352.5638820145</v>
+        <v>625302.8349501416</v>
       </c>
       <c r="P5">
-        <v>3968963.954696833</v>
+        <v>3968893.126506987</v>
       </c>
       <c r="Q5">
-        <v>3988265.983605628</v>
+        <v>3988170.129033832</v>
       </c>
       <c r="R5">
-        <v>4012061.220967709</v>
+        <v>4011934.48825479</v>
       </c>
       <c r="S5">
-        <v>12611981.71785848</v>
+        <v>12611817.82482033</v>
       </c>
       <c r="T5">
-        <v>12645593.02823174</v>
+        <v>12645385.4898517</v>
       </c>
       <c r="U5">
-        <v>12684091.97431913</v>
+        <v>12683834.41416071</v>
       </c>
       <c r="V5">
-        <v>12727157.14202241</v>
+        <v>12726843.60457537</v>
       </c>
       <c r="W5">
-        <v>12774282.61614379</v>
+        <v>12773907.80714616</v>
       </c>
       <c r="X5">
-        <v>12260565.59247027</v>
+        <v>12260124.96385425</v>
       </c>
       <c r="Y5">
-        <v>12314235.26479107</v>
+        <v>12313724.83607467</v>
       </c>
       <c r="Z5">
-        <v>12370963.84010817</v>
+        <v>12370379.62590123</v>
       </c>
       <c r="AA5">
-        <v>12431627.0159234</v>
+        <v>12430963.88609382</v>
       </c>
       <c r="AB5">
-        <v>12498482.60369742</v>
+        <v>12497732.47920541</v>
       </c>
       <c r="AC5">
-        <v>2563571.985756197</v>
+        <v>2562721.325170125</v>
       </c>
       <c r="AD5">
-        <v>2657810.812363754</v>
+        <v>2656837.454056222</v>
       </c>
       <c r="AE5">
-        <v>2778333.247070224</v>
+        <v>2777202.916741619</v>
       </c>
       <c r="AF5">
-        <v>2936967.85792669</v>
+        <v>2935630.866285049</v>
       </c>
       <c r="AG5">
-        <v>3147417.222724999</v>
+        <v>3145806.006606509</v>
       </c>
       <c r="AH5">
-        <v>1530161.19312875</v>
+        <v>1528189.452548165</v>
       </c>
       <c r="AI5">
-        <v>1886326.950254581</v>
+        <v>1883890.964858906</v>
       </c>
       <c r="AJ5">
-        <v>2332448.12735027</v>
+        <v>2329430.584847355</v>
       </c>
       <c r="AK5">
-        <v>2874058.356324513</v>
+        <v>2870334.720764598</v>
       </c>
       <c r="AL5">
-        <v>3510064.737985255</v>
+        <v>3505511.88567773</v>
       </c>
       <c r="AM5">
-        <v>4231395.520807946</v>
+        <v>4225902.165784023</v>
       </c>
       <c r="AN5">
-        <v>5020161.382643357</v>
+        <v>5013639.580012257</v>
       </c>
       <c r="AO5">
-        <v>5849498.894040318</v>
+        <v>5841895.701692993</v>
       </c>
       <c r="AP5">
-        <v>6684245.599279907</v>
+        <v>6675553.930218308</v>
       </c>
       <c r="AQ5">
-        <v>7482709.530470431</v>
+        <v>7472976.77362712</v>
       </c>
       <c r="AR5">
-        <v>8199731.085325583</v>
+        <v>8189063.526929128</v>
       </c>
       <c r="AS5">
-        <v>8790817.815086722</v>
+        <v>8779379.688036041</v>
       </c>
       <c r="AT5">
-        <v>9217030.478219151</v>
+        <v>9205036.792128801</v>
       </c>
       <c r="AU5">
-        <v>9449822.8602992</v>
+        <v>9437525.847921753</v>
       </c>
       <c r="AV5">
-        <v>10752234.08573307</v>
+        <v>10739904.56988465</v>
       </c>
       <c r="AW5">
-        <v>10933214.62989124</v>
+        <v>10921120.65468294</v>
       </c>
       <c r="AX5">
-        <v>10565753.93238075</v>
+        <v>10554139.45318127</v>
       </c>
       <c r="AY5">
-        <v>10043974.7524767</v>
+        <v>10033041.05435862</v>
       </c>
       <c r="AZ5">
-        <v>9411310.266203398</v>
+        <v>9401201.989803994</v>
       </c>
       <c r="BA5">
-        <v>8717632.071668407</v>
+        <v>8708428.697159886</v>
       </c>
       <c r="BB5">
-        <v>7829457.377511757</v>
+        <v>7821170.457951413</v>
       </c>
       <c r="BC5">
-        <v>7168445.181879409</v>
+        <v>7161020.518298413</v>
       </c>
       <c r="BD5">
-        <v>6594343.99444874</v>
+        <v>6587668.263339768</v>
       </c>
       <c r="BE5">
-        <v>6144004.748316918</v>
+        <v>6137916.563519901</v>
       </c>
       <c r="BF5">
-        <v>5842824.079061567</v>
+        <v>5837128.914558032</v>
       </c>
       <c r="BG5">
-        <v>5519698.021087334</v>
+        <v>5514185.744042927</v>
       </c>
       <c r="BH5">
-        <v>5539022.213843283</v>
+        <v>5533484.984331774</v>
       </c>
       <c r="BI5">
-        <v>5703950.69503958</v>
+        <v>5698198.619294968</v>
       </c>
       <c r="BJ5">
-        <v>5992011.471366096</v>
+        <v>5985883.96143749</v>
       </c>
       <c r="BK5">
-        <v>6375915.935793654</v>
+        <v>6369287.992827133</v>
       </c>
       <c r="BL5">
-        <v>6689253.78916525</v>
+        <v>6682037.896254925</v>
       </c>
       <c r="BM5">
-        <v>7179366.788906473</v>
+        <v>7171511.975299779</v>
       </c>
       <c r="BN5">
-        <v>7682318.196795101</v>
+        <v>7673807.761608247</v>
       </c>
       <c r="BO5">
-        <v>8173971.362163576</v>
+        <v>8164820.081394009</v>
       </c>
       <c r="BP5">
-        <v>8632550.20003964</v>
+        <v>8622801.224531218</v>
       </c>
       <c r="BQ5">
-        <v>8943004.070941955</v>
+        <v>8932725.367599655</v>
       </c>
       <c r="BR5">
-        <v>9281555.592530213</v>
+        <v>9270835.739081375</v>
       </c>
       <c r="BS5">
-        <v>9540097.575199127</v>
+        <v>9529040.908298111</v>
       </c>
       <c r="BT5">
-        <v>9710678.547169577</v>
+        <v>9699399.777550023</v>
       </c>
       <c r="BU5">
-        <v>9789824.301026231</v>
+        <v>9778442.686449789</v>
       </c>
       <c r="BV5">
-        <v>9685137.686177731</v>
+        <v>9673770.816834658</v>
       </c>
       <c r="BW5">
-        <v>9590273.10497148</v>
+        <v>9579030.37297154</v>
       </c>
       <c r="BX5">
-        <v>9422755.905061169</v>
+        <v>9411732.013876697</v>
       </c>
       <c r="BY5">
-        <v>9198427.03991596</v>
+        <v>9187696.034421315</v>
       </c>
       <c r="BZ5">
-        <v>8936940.610649247</v>
+        <v>8926550.931120209</v>
       </c>
       <c r="CA5">
-        <v>8562086.029873727</v>
+        <v>8552057.248932218</v>
       </c>
       <c r="CB5">
-        <v>8293454.403137595</v>
+        <v>8283776.275946943</v>
       </c>
       <c r="CC5">
-        <v>8054235.607322887</v>
+        <v>8044869.763981304</v>
       </c>
       <c r="CD5">
-        <v>7862759.291108667</v>
+        <v>7853643.454290832</v>
       </c>
       <c r="CE5">
-        <v>7732613.735963247</v>
+        <v>7723667.906789919</v>
       </c>
       <c r="CF5">
-        <v>7560862.954109288</v>
+        <v>7551996.725170035</v>
       </c>
       <c r="CG5">
-        <v>7571578.66031558</v>
+        <v>7562698.738648575</v>
       </c>
       <c r="CH5">
-        <v>7650711.258581978</v>
+        <v>7641728.419528527</v>
       </c>
       <c r="CI5">
-        <v>7790656.266177537</v>
+        <v>7781491.212918572</v>
       </c>
       <c r="CJ5">
-        <v>7980370.692387527</v>
+        <v>7970958.541949675</v>
       </c>
       <c r="CK5">
-        <v>8054890.477382844</v>
+        <v>8045183.78181272</v>
       </c>
       <c r="CL5">
-        <v>8302859.277668123</v>
+        <v>8292829.601530682</v>
       </c>
       <c r="CM5">
-        <v>8557881.068687923</v>
+        <v>8547519.23396752</v>
       </c>
       <c r="CN5">
-        <v>8805891.180377465</v>
+        <v>8795206.340243852</v>
       </c>
       <c r="CO5">
-        <v>9034298.38099554</v>
+        <v>9023316.103562061</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>291.1427982260567</v>
+      </c>
+      <c r="E2">
+        <v>627.3848291398834</v>
+      </c>
+      <c r="F2">
+        <v>1183.202333680189</v>
+      </c>
+      <c r="G2">
+        <v>1594.996686720693</v>
+      </c>
+      <c r="H2">
+        <v>2649.451926626781</v>
+      </c>
+      <c r="I2">
+        <v>3255.339427805175</v>
+      </c>
+      <c r="J2">
+        <v>3931.479065433083</v>
+      </c>
+      <c r="K2">
+        <v>4709.212223664834</v>
+      </c>
+      <c r="L2">
+        <v>5329.206659024716</v>
+      </c>
+      <c r="M2">
+        <v>6090.169932468641</v>
+      </c>
+      <c r="N2">
+        <v>6477.104228410857</v>
+      </c>
+      <c r="O2">
+        <v>6908.276996756077</v>
+      </c>
+      <c r="P2">
+        <v>7775.763602179984</v>
+      </c>
+      <c r="Q2">
+        <v>8661.944864503943</v>
+      </c>
+      <c r="R2">
+        <v>9567.592599631875</v>
+      </c>
+      <c r="S2">
+        <v>11789.65579856287</v>
+      </c>
+      <c r="T2">
+        <v>14002.94157557799</v>
+      </c>
+      <c r="U2">
+        <v>16219.13036428623</v>
+      </c>
+      <c r="V2">
+        <v>18452.46774588522</v>
+      </c>
+      <c r="W2">
+        <v>20704.58836169639</v>
+      </c>
+      <c r="X2">
+        <v>22787.20328595109</v>
+      </c>
+      <c r="Y2">
+        <v>24896.70879505934</v>
+      </c>
+      <c r="Z2">
+        <v>27026.30972707249</v>
+      </c>
+      <c r="AA2">
+        <v>29179.95397563359</v>
+      </c>
+      <c r="AB2">
+        <v>31400.95947053196</v>
+      </c>
+      <c r="AC2">
+        <v>32233.62414113947</v>
+      </c>
+      <c r="AD2">
+        <v>33188.6255513308</v>
+      </c>
+      <c r="AE2">
+        <v>34262.11715700367</v>
+      </c>
+      <c r="AF2">
+        <v>35325.45512200399</v>
+      </c>
+      <c r="AG2">
+        <v>36344.68047658825</v>
+      </c>
+      <c r="AH2">
+        <v>37152.88762320338</v>
+      </c>
+      <c r="AI2">
+        <v>37933.3654587916</v>
+      </c>
+      <c r="AJ2">
+        <v>38678.17587488861</v>
+      </c>
+      <c r="AK2">
+        <v>39399.14662358978</v>
+      </c>
+      <c r="AL2">
+        <v>40218.21754055901</v>
+      </c>
+      <c r="AM2">
+        <v>41257.49523350716</v>
+      </c>
+      <c r="AN2">
+        <v>42539.31129850777</v>
+      </c>
+      <c r="AO2">
+        <v>44165.79222910105</v>
+      </c>
+      <c r="AP2">
+        <v>46234.34402497532</v>
+      </c>
+      <c r="AQ2">
+        <v>48530.44620020887</v>
+      </c>
+      <c r="AR2">
+        <v>50850.1627809429</v>
+      </c>
+      <c r="AS2">
+        <v>53168.25842993433</v>
+      </c>
+      <c r="AT2">
+        <v>55460.88186787221</v>
+      </c>
+      <c r="AU2">
+        <v>57707.90379693006</v>
+      </c>
+      <c r="AV2">
+        <v>59939.25834596679</v>
+      </c>
+      <c r="AW2">
+        <v>62139.81188471903</v>
+      </c>
+      <c r="AX2">
+        <v>64456.54855430378</v>
+      </c>
+      <c r="AY2">
+        <v>66480.99664949391</v>
+      </c>
+      <c r="AZ2">
+        <v>68104.9048979503</v>
+      </c>
+      <c r="BA2">
+        <v>69559.15434781108</v>
+      </c>
+      <c r="BB2">
+        <v>71005.51424046641</v>
+      </c>
+      <c r="BC2">
+        <v>72428.58383479125</v>
+      </c>
+      <c r="BD2">
+        <v>73775.49814172745</v>
+      </c>
+      <c r="BE2">
+        <v>75031.81944009033</v>
+      </c>
+      <c r="BF2">
+        <v>76236.00070303424</v>
+      </c>
+      <c r="BG2">
+        <v>77409.32077589433</v>
+      </c>
+      <c r="BH2">
+        <v>78636.50154125944</v>
+      </c>
+      <c r="BI2">
+        <v>80002.63418927738</v>
+      </c>
+      <c r="BJ2">
+        <v>81591.83265528119</v>
+      </c>
+      <c r="BK2">
+        <v>83461.49870463807</v>
+      </c>
+      <c r="BL2">
+        <v>85621.10246350412</v>
+      </c>
+      <c r="BM2">
+        <v>88063.37932630148</v>
+      </c>
+      <c r="BN2">
+        <v>90674.7395383527</v>
+      </c>
+      <c r="BO2">
+        <v>93336.73567599907</v>
+      </c>
+      <c r="BP2">
+        <v>95993.7277073266</v>
+      </c>
+      <c r="BQ2">
+        <v>98613.02368598584</v>
+      </c>
+      <c r="BR2">
+        <v>101203.6541434038</v>
+      </c>
+      <c r="BS2">
+        <v>103766.1336658362</v>
+      </c>
+      <c r="BT2">
+        <v>106289.843494081</v>
+      </c>
+      <c r="BU2">
+        <v>108719.9671304803</v>
+      </c>
+      <c r="BV2">
+        <v>110933.1739773674</v>
+      </c>
+      <c r="BW2">
+        <v>112914.0173593517</v>
+      </c>
+      <c r="BX2">
+        <v>114756.043346008</v>
+      </c>
+      <c r="BY2">
+        <v>116545.129673831</v>
+      </c>
+      <c r="BZ2">
+        <v>118294.0788681672</v>
+      </c>
+      <c r="CA2">
+        <v>119971.127738679</v>
+      </c>
+      <c r="CB2">
+        <v>121594.6065159155</v>
+      </c>
+      <c r="CC2">
+        <v>123195.2689440094</v>
+      </c>
+      <c r="CD2">
+        <v>124823.7837207227</v>
+      </c>
+      <c r="CE2">
+        <v>126548.3313207279</v>
+      </c>
+      <c r="CF2">
+        <v>128425.1241261702</v>
+      </c>
+      <c r="CG2">
+        <v>130531.2008857046</v>
+      </c>
+      <c r="CH2">
+        <v>132897.2559976837</v>
+      </c>
+      <c r="CI2">
+        <v>135515.8409387341</v>
+      </c>
+      <c r="CJ2">
+        <v>138339.4799776763</v>
+      </c>
+      <c r="CK2">
+        <v>141264.2701046087</v>
+      </c>
+      <c r="CL2">
+        <v>144234.3359129307</v>
+      </c>
+      <c r="CM2">
+        <v>147199.5396968284</v>
+      </c>
+      <c r="CN2">
+        <v>150137.5131478912</v>
+      </c>
+      <c r="CO2">
+        <v>153039.3751430833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>18.32302388542445</v>
+      </c>
+      <c r="E3">
+        <v>39.61127737626586</v>
+      </c>
+      <c r="F3">
+        <v>75.51483344018982</v>
+      </c>
+      <c r="G3">
+        <v>101.7462723055256</v>
+      </c>
+      <c r="H3">
+        <v>171.2513030916926</v>
+      </c>
+      <c r="I3">
+        <v>210.6159462583943</v>
+      </c>
+      <c r="J3">
+        <v>254.5739800884131</v>
+      </c>
+      <c r="K3">
+        <v>305.1852186693317</v>
+      </c>
+      <c r="L3">
+        <v>345.2521048672259</v>
+      </c>
+      <c r="M3">
+        <v>394.705901653937</v>
+      </c>
+      <c r="N3">
+        <v>418.8737009652405</v>
+      </c>
+      <c r="O3">
+        <v>446.1732898417847</v>
+      </c>
+      <c r="P3">
+        <v>502.6857292281851</v>
+      </c>
+      <c r="Q3">
+        <v>560.4201782569679</v>
+      </c>
+      <c r="R3">
+        <v>619.4290771349541</v>
+      </c>
+      <c r="S3">
+        <v>766.7727887553898</v>
+      </c>
+      <c r="T3">
+        <v>913.4675376332032</v>
+      </c>
+      <c r="U3">
+        <v>1060.304280296827</v>
+      </c>
+      <c r="V3">
+        <v>1208.247750946259</v>
+      </c>
+      <c r="W3">
+        <v>1357.40864020405</v>
+      </c>
+      <c r="X3">
+        <v>1495.147337378289</v>
+      </c>
+      <c r="Y3">
+        <v>1634.654376400899</v>
+      </c>
+      <c r="Z3">
+        <v>1775.469619650675</v>
+      </c>
+      <c r="AA3">
+        <v>1917.860431480322</v>
+      </c>
+      <c r="AB3">
+        <v>2064.760408364888</v>
+      </c>
+      <c r="AC3">
+        <v>2118.453706491047</v>
+      </c>
+      <c r="AD3">
+        <v>2180.377839374142</v>
+      </c>
+      <c r="AE3">
+        <v>2250.272107284771</v>
+      </c>
+      <c r="AF3">
+        <v>2319.423967178885</v>
+      </c>
+      <c r="AG3">
+        <v>2385.533255681595</v>
+      </c>
+      <c r="AH3">
+        <v>2437.416418303659</v>
+      </c>
+      <c r="AI3">
+        <v>2487.363639476453</v>
+      </c>
+      <c r="AJ3">
+        <v>2534.836420635469</v>
+      </c>
+      <c r="AK3">
+        <v>2580.634678797995</v>
+      </c>
+      <c r="AL3">
+        <v>2633.015440473219</v>
+      </c>
+      <c r="AM3">
+        <v>2700.246742584405</v>
+      </c>
+      <c r="AN3">
+        <v>2783.840306166355</v>
+      </c>
+      <c r="AO3">
+        <v>2890.711490732099</v>
+      </c>
+      <c r="AP3">
+        <v>3027.45627903779</v>
+      </c>
+      <c r="AQ3">
+        <v>3179.548351486848</v>
+      </c>
+      <c r="AR3">
+        <v>3333.176495271842</v>
+      </c>
+      <c r="AS3">
+        <v>3486.632838997977</v>
+      </c>
+      <c r="AT3">
+        <v>3638.303507255343</v>
+      </c>
+      <c r="AU3">
+        <v>3786.826860417788</v>
+      </c>
+      <c r="AV3">
+        <v>3934.222158734417</v>
+      </c>
+      <c r="AW3">
+        <v>4079.467551187886</v>
+      </c>
+      <c r="AX3">
+        <v>4232.386332230966</v>
+      </c>
+      <c r="AY3">
+        <v>4365.453675180042</v>
+      </c>
+      <c r="AZ3">
+        <v>4471.340140500046</v>
+      </c>
+      <c r="BA3">
+        <v>4565.680586526724</v>
+      </c>
+      <c r="BB3">
+        <v>4659.440576516832</v>
+      </c>
+      <c r="BC3">
+        <v>4751.559472899326</v>
+      </c>
+      <c r="BD3">
+        <v>4838.456587563555</v>
+      </c>
+      <c r="BE3">
+        <v>4919.153267066359</v>
+      </c>
+      <c r="BF3">
+        <v>4996.252153502773</v>
+      </c>
+      <c r="BG3">
+        <v>5071.204884133648</v>
+      </c>
+      <c r="BH3">
+        <v>5149.730509717906</v>
+      </c>
+      <c r="BI3">
+        <v>5237.590246622848</v>
+      </c>
+      <c r="BJ3">
+        <v>5340.479338919175</v>
+      </c>
+      <c r="BK3">
+        <v>5462.284233371515</v>
+      </c>
+      <c r="BL3">
+        <v>5603.654504487477</v>
+      </c>
+      <c r="BM3">
+        <v>5764.085281849687</v>
+      </c>
+      <c r="BN3">
+        <v>5935.8845876673</v>
+      </c>
+      <c r="BO3">
+        <v>6111.031687651591</v>
+      </c>
+      <c r="BP3">
+        <v>6285.759116656614</v>
+      </c>
+      <c r="BQ3">
+        <v>6457.856464560962</v>
+      </c>
+      <c r="BR3">
+        <v>6627.926959551126</v>
+      </c>
+      <c r="BS3">
+        <v>6796.006101564726</v>
+      </c>
+      <c r="BT3">
+        <v>6961.375571076778</v>
+      </c>
+      <c r="BU3">
+        <v>7120.324184396963</v>
+      </c>
+      <c r="BV3">
+        <v>7264.504672705536</v>
+      </c>
+      <c r="BW3">
+        <v>7392.863060319303</v>
+      </c>
+      <c r="BX3">
+        <v>7511.73437800685</v>
+      </c>
+      <c r="BY3">
+        <v>7626.934151546816</v>
+      </c>
+      <c r="BZ3">
+        <v>7739.329339141153</v>
+      </c>
+      <c r="CA3">
+        <v>7846.772657066633</v>
+      </c>
+      <c r="CB3">
+        <v>7950.49612590804</v>
+      </c>
+      <c r="CC3">
+        <v>8052.581957801315</v>
+      </c>
+      <c r="CD3">
+        <v>8156.460852389543</v>
+      </c>
+      <c r="CE3">
+        <v>8266.749355064672</v>
+      </c>
+      <c r="CF3">
+        <v>8387.257748609574</v>
+      </c>
+      <c r="CG3">
+        <v>8523.192251775021</v>
+      </c>
+      <c r="CH3">
+        <v>8676.630971814753</v>
+      </c>
+      <c r="CI3">
+        <v>8847.069111754148</v>
+      </c>
+      <c r="CJ3">
+        <v>9031.29143716721</v>
+      </c>
+      <c r="CK3">
+        <v>9222.270033292714</v>
+      </c>
+      <c r="CL3">
+        <v>9416.207138196711</v>
+      </c>
+      <c r="CM3">
+        <v>9609.707592195418</v>
+      </c>
+      <c r="CN3">
+        <v>9801.256793715749</v>
+      </c>
+      <c r="CO3">
+        <v>9990.253550253214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>29416021.22298668</v>
+      </c>
+      <c r="E4">
+        <v>59168564.70555401</v>
+      </c>
+      <c r="F4">
+        <v>91808924.92818676</v>
+      </c>
+      <c r="G4">
+        <v>124550977.7243607</v>
+      </c>
+      <c r="H4">
+        <v>154365455.4479107</v>
+      </c>
+      <c r="I4">
+        <v>183609744.6599061</v>
+      </c>
+      <c r="J4">
+        <v>215863547.4673854</v>
+      </c>
+      <c r="K4">
+        <v>252362764.4734592</v>
+      </c>
+      <c r="L4">
+        <v>288615480.5347571</v>
+      </c>
+      <c r="M4">
+        <v>327181424.4446929</v>
+      </c>
+      <c r="N4">
+        <v>368921700.4745178</v>
+      </c>
+      <c r="O4">
+        <v>407651493.6624718</v>
+      </c>
+      <c r="P4">
+        <v>450672471.183457</v>
+      </c>
+      <c r="Q4">
+        <v>495174903.5634067</v>
+      </c>
+      <c r="R4">
+        <v>541146210.9938935</v>
+      </c>
+      <c r="S4">
+        <v>593655021.0151623</v>
+      </c>
+      <c r="T4">
+        <v>647771514.1932687</v>
+      </c>
+      <c r="U4">
+        <v>703501833.6329125</v>
+      </c>
+      <c r="V4">
+        <v>760848663.4806632</v>
+      </c>
+      <c r="W4">
+        <v>819812157.717604</v>
+      </c>
+      <c r="X4">
+        <v>879859979.6688821</v>
+      </c>
+      <c r="Y4">
+        <v>941422749.5139015</v>
+      </c>
+      <c r="Z4">
+        <v>1004495084.652063</v>
+      </c>
+      <c r="AA4">
+        <v>1069076654.132904</v>
+      </c>
+      <c r="AB4">
+        <v>1135175047.222619</v>
+      </c>
+      <c r="AC4">
+        <v>1197071686.591385</v>
+      </c>
+      <c r="AD4">
+        <v>1260503085.720464</v>
+      </c>
+      <c r="AE4">
+        <v>1325476052.980046</v>
+      </c>
+      <c r="AF4">
+        <v>1391986595.140664</v>
+      </c>
+      <c r="AG4">
+        <v>1460041239.987885</v>
+      </c>
+      <c r="AH4">
+        <v>1528675277.744319</v>
+      </c>
+      <c r="AI4">
+        <v>1598930607.682371</v>
+      </c>
+      <c r="AJ4">
+        <v>1670846513.100267</v>
+      </c>
+      <c r="AK4">
+        <v>1744477192.593511</v>
+      </c>
+      <c r="AL4">
+        <v>1819896762.533877</v>
+      </c>
+      <c r="AM4">
+        <v>1897137870.290184</v>
+      </c>
+      <c r="AN4">
+        <v>1976232251.637286</v>
+      </c>
+      <c r="AO4">
+        <v>2057252959.127158</v>
+      </c>
+      <c r="AP4">
+        <v>2140259415.905282</v>
+      </c>
+      <c r="AQ4">
+        <v>2225110558.308005</v>
+      </c>
+      <c r="AR4">
+        <v>2311641633.147742</v>
+      </c>
+      <c r="AS4">
+        <v>2399800089.622356</v>
+      </c>
+      <c r="AT4">
+        <v>2489524818.264835</v>
+      </c>
+      <c r="AU4">
+        <v>2580750340.708272</v>
+      </c>
+      <c r="AV4">
+        <v>2673988162.926421</v>
+      </c>
+      <c r="AW4">
+        <v>2768872701.761431</v>
+      </c>
+      <c r="AX4">
+        <v>2865362821.585384</v>
+      </c>
+      <c r="AY4">
+        <v>2963068861.869688</v>
+      </c>
+      <c r="AZ4">
+        <v>3061884937.0866</v>
+      </c>
+      <c r="BA4">
+        <v>3161940171.347796</v>
+      </c>
+      <c r="BB4">
+        <v>3263357762.234392</v>
+      </c>
+      <c r="BC4">
+        <v>3366254656.038841</v>
+      </c>
+      <c r="BD4">
+        <v>3470636253.530916</v>
+      </c>
+      <c r="BE4">
+        <v>3576531476.52579</v>
+      </c>
+      <c r="BF4">
+        <v>3684014748.291757</v>
+      </c>
+      <c r="BG4">
+        <v>3793149455.737668</v>
+      </c>
+      <c r="BH4">
+        <v>3904119078.741412</v>
+      </c>
+      <c r="BI4">
+        <v>4017000441.770343</v>
+      </c>
+      <c r="BJ4">
+        <v>4131861141.640098</v>
+      </c>
+      <c r="BK4">
+        <v>4248754858.168934</v>
+      </c>
+      <c r="BL4">
+        <v>4367693167.380099</v>
+      </c>
+      <c r="BM4">
+        <v>4488747517.943974</v>
+      </c>
+      <c r="BN4">
+        <v>4611850207.694087</v>
+      </c>
+      <c r="BO4">
+        <v>4736923413.349876</v>
+      </c>
+      <c r="BP4">
+        <v>4863921351.22356</v>
+      </c>
+      <c r="BQ4">
+        <v>4992881254.057739</v>
+      </c>
+      <c r="BR4">
+        <v>5123833935.879936</v>
+      </c>
+      <c r="BS4">
+        <v>5256753940.930012</v>
+      </c>
+      <c r="BT4">
+        <v>5391604570.449162</v>
+      </c>
+      <c r="BU4">
+        <v>5528319180.664381</v>
+      </c>
+      <c r="BV4">
+        <v>5666831897.489498</v>
+      </c>
+      <c r="BW4">
+        <v>5807154723.409583</v>
+      </c>
+      <c r="BX4">
+        <v>5949333843.946577</v>
+      </c>
+      <c r="BY4">
+        <v>6093422851.869206</v>
+      </c>
+      <c r="BZ4">
+        <v>6239437318.471091</v>
+      </c>
+      <c r="CA4">
+        <v>6387413668.933725</v>
+      </c>
+      <c r="CB4">
+        <v>6537421856.335696</v>
+      </c>
+      <c r="CC4">
+        <v>6689495987.444914</v>
+      </c>
+      <c r="CD4">
+        <v>6843683801.157911</v>
+      </c>
+      <c r="CE4">
+        <v>7000039958.063312</v>
+      </c>
+      <c r="CF4">
+        <v>7158653194.188352</v>
+      </c>
+      <c r="CG4">
+        <v>7319633032.940635</v>
+      </c>
+      <c r="CH4">
+        <v>7483010216.045995</v>
+      </c>
+      <c r="CI4">
+        <v>7648793733.037265</v>
+      </c>
+      <c r="CJ4">
+        <v>7816966098.514647</v>
+      </c>
+      <c r="CK4">
+        <v>7987491126.566318</v>
+      </c>
+      <c r="CL4">
+        <v>8160411305.63039</v>
+      </c>
+      <c r="CM4">
+        <v>8335694762.312276</v>
+      </c>
+      <c r="CN4">
+        <v>8513322412.935688</v>
+      </c>
+      <c r="CO4">
+        <v>8693279342.753208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1883239.867233883</v>
+      </c>
+      <c r="E5">
+        <v>2990117.124543576</v>
+      </c>
+      <c r="F5">
+        <v>3545218.255436689</v>
+      </c>
+      <c r="G5">
+        <v>3886875.870569432</v>
+      </c>
+      <c r="H5">
+        <v>4207530.338541428</v>
+      </c>
+      <c r="I5">
+        <v>4436128.958085805</v>
+      </c>
+      <c r="J5">
+        <v>4624879.424368945</v>
+      </c>
+      <c r="K5">
+        <v>4869934.452937495</v>
+      </c>
+      <c r="L5">
+        <v>5312933.048258248</v>
+      </c>
+      <c r="M5">
+        <v>5706024.580807383</v>
+      </c>
+      <c r="N5">
+        <v>6204370.920284811</v>
+      </c>
+      <c r="O5">
+        <v>6829673.755234953</v>
+      </c>
+      <c r="P5">
+        <v>10798566.88174194</v>
+      </c>
+      <c r="Q5">
+        <v>14786737.01077577</v>
+      </c>
+      <c r="R5">
+        <v>18798671.49903056</v>
+      </c>
+      <c r="S5">
+        <v>31410489.32385089</v>
+      </c>
+      <c r="T5">
+        <v>44055874.81370259</v>
+      </c>
+      <c r="U5">
+        <v>56739709.2278633</v>
+      </c>
+      <c r="V5">
+        <v>69466552.83243866</v>
+      </c>
+      <c r="W5">
+        <v>82240460.63958482</v>
+      </c>
+      <c r="X5">
+        <v>94500585.60343908</v>
+      </c>
+      <c r="Y5">
+        <v>106814310.4395137</v>
+      </c>
+      <c r="Z5">
+        <v>119184690.065415</v>
+      </c>
+      <c r="AA5">
+        <v>131615653.9515088</v>
+      </c>
+      <c r="AB5">
+        <v>144113386.4307142</v>
+      </c>
+      <c r="AC5">
+        <v>146676107.7558843</v>
+      </c>
+      <c r="AD5">
+        <v>149332945.2099406</v>
+      </c>
+      <c r="AE5">
+        <v>152110148.1266822</v>
+      </c>
+      <c r="AF5">
+        <v>155045778.9929672</v>
+      </c>
+      <c r="AG5">
+        <v>158191584.9995737</v>
+      </c>
+      <c r="AH5">
+        <v>159719774.4521219</v>
+      </c>
+      <c r="AI5">
+        <v>161603665.4169808</v>
+      </c>
+      <c r="AJ5">
+        <v>163933096.0018282</v>
+      </c>
+      <c r="AK5">
+        <v>166803430.7225928</v>
+      </c>
+      <c r="AL5">
+        <v>170308942.6082705</v>
+      </c>
+      <c r="AM5">
+        <v>174534844.7740546</v>
+      </c>
+      <c r="AN5">
+        <v>179548484.3540668</v>
+      </c>
+      <c r="AO5">
+        <v>185390380.0557598</v>
+      </c>
+      <c r="AP5">
+        <v>192065933.9859781</v>
+      </c>
+      <c r="AQ5">
+        <v>199538910.7596053</v>
+      </c>
+      <c r="AR5">
+        <v>207727974.2865344</v>
+      </c>
+      <c r="AS5">
+        <v>216507353.9745705</v>
+      </c>
+      <c r="AT5">
+        <v>225712390.7666993</v>
+      </c>
+      <c r="AU5">
+        <v>235149916.614621</v>
+      </c>
+      <c r="AV5">
+        <v>245889821.1845057</v>
+      </c>
+      <c r="AW5">
+        <v>256810941.8391886</v>
+      </c>
+      <c r="AX5">
+        <v>267365081.2923699</v>
+      </c>
+      <c r="AY5">
+        <v>277398122.3467285</v>
+      </c>
+      <c r="AZ5">
+        <v>286799324.3365325</v>
+      </c>
+      <c r="BA5">
+        <v>295507753.0336924</v>
+      </c>
+      <c r="BB5">
+        <v>303328923.4916438</v>
+      </c>
+      <c r="BC5">
+        <v>310489944.0099422</v>
+      </c>
+      <c r="BD5">
+        <v>317077612.2732819</v>
+      </c>
+      <c r="BE5">
+        <v>323215528.8368018</v>
+      </c>
+      <c r="BF5">
+        <v>329052657.7513599</v>
+      </c>
+      <c r="BG5">
+        <v>334566843.4954028</v>
+      </c>
+      <c r="BH5">
+        <v>340100328.4797346</v>
+      </c>
+      <c r="BI5">
+        <v>345798527.0990295</v>
+      </c>
+      <c r="BJ5">
+        <v>351784411.060467</v>
+      </c>
+      <c r="BK5">
+        <v>358153699.0532941</v>
+      </c>
+      <c r="BL5">
+        <v>364835736.949549</v>
+      </c>
+      <c r="BM5">
+        <v>372007248.9248488</v>
+      </c>
+      <c r="BN5">
+        <v>379681056.686457</v>
+      </c>
+      <c r="BO5">
+        <v>387845876.7678511</v>
+      </c>
+      <c r="BP5">
+        <v>396468677.9923823</v>
+      </c>
+      <c r="BQ5">
+        <v>405401403.359982</v>
+      </c>
+      <c r="BR5">
+        <v>414672239.0990633</v>
+      </c>
+      <c r="BS5">
+        <v>424201280.0073615</v>
+      </c>
+      <c r="BT5">
+        <v>433900679.7849115</v>
+      </c>
+      <c r="BU5">
+        <v>443679122.4713613</v>
+      </c>
+      <c r="BV5">
+        <v>453352893.288196</v>
+      </c>
+      <c r="BW5">
+        <v>462931923.6611675</v>
+      </c>
+      <c r="BX5">
+        <v>472343655.6750442</v>
+      </c>
+      <c r="BY5">
+        <v>481531351.7094655</v>
+      </c>
+      <c r="BZ5">
+        <v>490457902.6405857</v>
+      </c>
+      <c r="CA5">
+        <v>499009959.889518</v>
+      </c>
+      <c r="CB5">
+        <v>507293736.1654649</v>
+      </c>
+      <c r="CC5">
+        <v>515338605.9294462</v>
+      </c>
+      <c r="CD5">
+        <v>523192249.383737</v>
+      </c>
+      <c r="CE5">
+        <v>530915917.2905269</v>
+      </c>
+      <c r="CF5">
+        <v>538467914.0156969</v>
+      </c>
+      <c r="CG5">
+        <v>546030612.7543454</v>
+      </c>
+      <c r="CH5">
+        <v>553672341.1738739</v>
+      </c>
+      <c r="CI5">
+        <v>561453832.3867924</v>
+      </c>
+      <c r="CJ5">
+        <v>569424790.9287421</v>
+      </c>
+      <c r="CK5">
+        <v>577469974.7105547</v>
+      </c>
+      <c r="CL5">
+        <v>585762804.3120854</v>
+      </c>
+      <c r="CM5">
+        <v>594310323.5460529</v>
+      </c>
+      <c r="CN5">
+        <v>603105529.8862967</v>
+      </c>
+      <c r="CO5">
+        <v>612128845.9898589</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Price/Results_world_base_price_Min.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Min.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>291.1427982260567</v>
+        <v>1336.112886539807</v>
       </c>
       <c r="E2">
-        <v>336.2420309138267</v>
+        <v>1741.47938675623</v>
       </c>
       <c r="F2">
-        <v>555.817504540306</v>
+        <v>1740.577674888279</v>
       </c>
       <c r="G2">
-        <v>411.7943530405038</v>
+        <v>1654.00646704933</v>
       </c>
       <c r="H2">
-        <v>1054.455239906088</v>
+        <v>2218.383338661612</v>
       </c>
       <c r="I2">
-        <v>605.8875011783937</v>
+        <v>1600.409672477741</v>
       </c>
       <c r="J2">
-        <v>676.1396376279085</v>
+        <v>2895.78668105219</v>
       </c>
       <c r="K2">
-        <v>777.7331582317508</v>
+        <v>2878.800073871557</v>
       </c>
       <c r="L2">
-        <v>619.9944353598821</v>
+        <v>2561.554236106353</v>
       </c>
       <c r="M2">
-        <v>760.9632734439244</v>
+        <v>2361.044165704326</v>
       </c>
       <c r="N2">
-        <v>386.9342959422164</v>
+        <v>5050.715956884559</v>
       </c>
       <c r="O2">
-        <v>431.1727683452199</v>
+        <v>3065.893744746963</v>
       </c>
       <c r="P2">
-        <v>867.4866054239075</v>
+        <v>6145.066467531597</v>
       </c>
       <c r="Q2">
-        <v>886.1812623239579</v>
+        <v>6631.946731399996</v>
       </c>
       <c r="R2">
-        <v>905.6477351279319</v>
+        <v>7125.59971600364</v>
       </c>
       <c r="S2">
-        <v>2222.063198930992</v>
+        <v>15579.81113523285</v>
       </c>
       <c r="T2">
-        <v>2213.28577701512</v>
+        <v>16681.52423902843</v>
       </c>
       <c r="U2">
-        <v>2216.188788708248</v>
+        <v>17795.20084975191</v>
       </c>
       <c r="V2">
-        <v>2233.337381598985</v>
+        <v>18929.86689556065</v>
       </c>
       <c r="W2">
-        <v>2252.120615811175</v>
+        <v>20081.23713905758</v>
       </c>
       <c r="X2">
-        <v>2082.614924254702</v>
+        <v>20179.1884219029</v>
       </c>
       <c r="Y2">
-        <v>2109.505509108246</v>
+        <v>21286.80129938323</v>
       </c>
       <c r="Z2">
-        <v>2129.600932013147</v>
+        <v>22403.5769400924</v>
       </c>
       <c r="AA2">
-        <v>2153.644248561101</v>
+        <v>23543.73787617385</v>
       </c>
       <c r="AB2">
-        <v>2221.005494898369</v>
+        <v>24716.1851812502</v>
       </c>
       <c r="AC2">
-        <v>832.6646706075081</v>
+        <v>11556.41719873533</v>
       </c>
       <c r="AD2">
-        <v>955.0014101913293</v>
+        <v>11877.91706761704</v>
       </c>
       <c r="AE2">
-        <v>1073.491605672878</v>
+        <v>12290.47928423603</v>
       </c>
       <c r="AF2">
-        <v>1063.337965000313</v>
+        <v>12689.8647325285</v>
       </c>
       <c r="AG2">
-        <v>1019.225354584261</v>
+        <v>13156.94900152463</v>
       </c>
       <c r="AH2">
-        <v>808.2071466151319</v>
+        <v>8437.469630950471</v>
       </c>
       <c r="AI2">
-        <v>780.4778355882177</v>
+        <v>8516.568976134182</v>
       </c>
       <c r="AJ2">
-        <v>744.810416097008</v>
+        <v>8929.38764434201</v>
       </c>
       <c r="AK2">
-        <v>720.9707487011708</v>
+        <v>9667.885008258347</v>
       </c>
       <c r="AL2">
-        <v>819.0709169692346</v>
+        <v>10387.00034738321</v>
       </c>
       <c r="AM2">
-        <v>1039.277692948158</v>
+        <v>13761.42240424649</v>
       </c>
       <c r="AN2">
-        <v>1281.816065000603</v>
+        <v>15502.35923481641</v>
       </c>
       <c r="AO2">
-        <v>1626.48093059329</v>
+        <v>17915.74406063983</v>
       </c>
       <c r="AP2">
-        <v>2068.551795874267</v>
+        <v>21030.10191943558</v>
       </c>
       <c r="AQ2">
-        <v>2296.102175233551</v>
+        <v>23262.0410748079</v>
       </c>
       <c r="AR2">
-        <v>2319.716580734037</v>
+        <v>28634.30099627702</v>
       </c>
       <c r="AS2">
-        <v>2318.095648991427</v>
+        <v>29868.19774052917</v>
       </c>
       <c r="AT2">
-        <v>2292.623437937882</v>
+        <v>30904.39168943651</v>
       </c>
       <c r="AU2">
-        <v>2247.021929057843</v>
+        <v>31751.43234723315</v>
       </c>
       <c r="AV2">
-        <v>2231.354549036737</v>
+        <v>32611.16811177096</v>
       </c>
       <c r="AW2">
-        <v>2200.55353875224</v>
+        <v>34158.04048629272</v>
       </c>
       <c r="AX2">
-        <v>2316.736669584744</v>
+        <v>33814.88405774106</v>
       </c>
       <c r="AY2">
-        <v>2024.448095190136</v>
+        <v>31620.59513483887</v>
       </c>
       <c r="AZ2">
-        <v>1623.908248456388</v>
+        <v>28056.8948894758</v>
       </c>
       <c r="BA2">
-        <v>1454.24944986079</v>
+        <v>26288.70729390033</v>
       </c>
       <c r="BB2">
-        <v>1446.359892655324</v>
+        <v>25189.75773423029</v>
       </c>
       <c r="BC2">
-        <v>1423.069594324838</v>
+        <v>25020.68540004348</v>
       </c>
       <c r="BD2">
-        <v>1346.914306936199</v>
+        <v>24222.55295439118</v>
       </c>
       <c r="BE2">
-        <v>1256.321298362878</v>
+        <v>23002.11056970391</v>
       </c>
       <c r="BF2">
-        <v>1204.181262943902</v>
+        <v>22602.45052289141</v>
       </c>
       <c r="BG2">
-        <v>1173.320072860096</v>
+        <v>22382.66740965086</v>
       </c>
       <c r="BH2">
-        <v>1227.180765365111</v>
+        <v>23443.9850094644</v>
       </c>
       <c r="BI2">
-        <v>1366.132648017936</v>
+        <v>25073.97787882119</v>
       </c>
       <c r="BJ2">
-        <v>1589.198466003818</v>
+        <v>27311.63743581115</v>
       </c>
       <c r="BK2">
-        <v>1869.666049356877</v>
+        <v>29757.87703304834</v>
       </c>
       <c r="BL2">
-        <v>2159.60375886605</v>
+        <v>31927.04020757675</v>
       </c>
       <c r="BM2">
-        <v>2442.276862797361</v>
+        <v>34830.9745527159</v>
       </c>
       <c r="BN2">
-        <v>2611.360212051226</v>
+        <v>37822.37683657055</v>
       </c>
       <c r="BO2">
-        <v>2661.996137646362</v>
+        <v>40633.53518844639</v>
       </c>
       <c r="BP2">
-        <v>2656.992031327542</v>
+        <v>42546.49312715403</v>
       </c>
       <c r="BQ2">
-        <v>2619.295978659236</v>
+        <v>43474.3528978598</v>
       </c>
       <c r="BR2">
-        <v>2590.630457417952</v>
+        <v>44450.69078457048</v>
       </c>
       <c r="BS2">
-        <v>2562.479522432428</v>
+        <v>45244.43461474006</v>
       </c>
       <c r="BT2">
-        <v>2523.70982824481</v>
+        <v>45528.71883397148</v>
       </c>
       <c r="BU2">
-        <v>2430.123636399227</v>
+        <v>44745.22887341293</v>
       </c>
       <c r="BV2">
-        <v>2213.206846887189</v>
+        <v>42625.41417649755</v>
       </c>
       <c r="BW2">
-        <v>1980.843381984297</v>
+        <v>40530.39874515866</v>
       </c>
       <c r="BX2">
-        <v>1842.025986656273</v>
+        <v>39053.81556733829</v>
       </c>
       <c r="BY2">
-        <v>1789.086327822999</v>
+        <v>38272.86927901066</v>
       </c>
       <c r="BZ2">
-        <v>1748.94919433622</v>
+        <v>37769.58821381954</v>
       </c>
       <c r="CA2">
-        <v>1677.048870511811</v>
+        <v>36958.17883944589</v>
       </c>
       <c r="CB2">
-        <v>1623.478777236516</v>
+        <v>36441.20807161614</v>
       </c>
       <c r="CC2">
-        <v>1600.662428093827</v>
+        <v>36353.0687295701</v>
       </c>
       <c r="CD2">
-        <v>1628.514776713288</v>
+        <v>36889.57809022171</v>
       </c>
       <c r="CE2">
-        <v>1724.547600005271</v>
+        <v>38128.91680998952</v>
       </c>
       <c r="CF2">
-        <v>1876.792805442226</v>
+        <v>39641.6732411272</v>
       </c>
       <c r="CG2">
-        <v>2106.076759534486</v>
+        <v>41852.36881986557</v>
       </c>
       <c r="CH2">
-        <v>2366.055111979047</v>
+        <v>44263.6952139192</v>
       </c>
       <c r="CI2">
-        <v>2618.584941050453</v>
+        <v>46799.4322239988</v>
       </c>
       <c r="CJ2">
-        <v>2823.639038942161</v>
+        <v>49491.30592090331</v>
       </c>
       <c r="CK2">
-        <v>2924.790126932437</v>
+        <v>51641.89250936483</v>
       </c>
       <c r="CL2">
-        <v>2970.065808321967</v>
+        <v>53896.28573577639</v>
       </c>
       <c r="CM2">
-        <v>2965.203783897718</v>
+        <v>55539.41209301079</v>
       </c>
       <c r="CN2">
-        <v>2937.973451062789</v>
+        <v>56627.31510331818</v>
       </c>
       <c r="CO2">
-        <v>2901.861995192102</v>
+        <v>57374.58180571931</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18.32302388542445</v>
+        <v>104.1613861802878</v>
       </c>
       <c r="E3">
-        <v>21.28825349084141</v>
+        <v>136.1735882041866</v>
       </c>
       <c r="F3">
-        <v>35.90355606392396</v>
+        <v>135.92847153043</v>
       </c>
       <c r="G3">
-        <v>26.23143886533576</v>
+        <v>129.0719449750571</v>
       </c>
       <c r="H3">
-        <v>69.50503078616698</v>
+        <v>173.9046366889177</v>
       </c>
       <c r="I3">
-        <v>39.36464316670175</v>
+        <v>124.9545977335689</v>
       </c>
       <c r="J3">
-        <v>43.95803383001879</v>
+        <v>227.3605984848085</v>
       </c>
       <c r="K3">
-        <v>50.61123858091855</v>
+        <v>225.7919679791194</v>
       </c>
       <c r="L3">
-        <v>40.06688619789421</v>
+        <v>200.7383042516898</v>
       </c>
       <c r="M3">
-        <v>49.45379678671114</v>
+        <v>184.7480043098088</v>
       </c>
       <c r="N3">
-        <v>24.16779931130342</v>
+        <v>397.5932802529085</v>
       </c>
       <c r="O3">
-        <v>27.29958887654422</v>
+        <v>240.6331526592464</v>
       </c>
       <c r="P3">
-        <v>56.51243938640041</v>
+        <v>484.272350164369</v>
       </c>
       <c r="Q3">
-        <v>57.73444902878284</v>
+        <v>522.7846475352696</v>
       </c>
       <c r="R3">
-        <v>59.00889887798625</v>
+        <v>561.8378826810124</v>
       </c>
       <c r="S3">
-        <v>147.3437116204357</v>
+        <v>1231.001356589713</v>
       </c>
       <c r="T3">
-        <v>146.6947488778134</v>
+        <v>1318.168444266804</v>
       </c>
       <c r="U3">
-        <v>146.8367426636241</v>
+        <v>1406.290156005317</v>
       </c>
       <c r="V3">
-        <v>147.943470649432</v>
+        <v>1496.087182714074</v>
       </c>
       <c r="W3">
-        <v>149.1608892577914</v>
+        <v>1587.217358885462</v>
       </c>
       <c r="X3">
-        <v>137.7386971742386</v>
+        <v>1594.952389988614</v>
       </c>
       <c r="Y3">
-        <v>139.5070390226099</v>
+        <v>1682.658816663412</v>
       </c>
       <c r="Z3">
-        <v>140.8152432497756</v>
+        <v>1771.096069943655</v>
       </c>
       <c r="AA3">
-        <v>142.3908118296478</v>
+        <v>1861.398983925816</v>
       </c>
       <c r="AB3">
-        <v>146.899976884565</v>
+        <v>1954.277782918555</v>
       </c>
       <c r="AC3">
-        <v>53.69329812615926</v>
+        <v>912.4950005275005</v>
       </c>
       <c r="AD3">
-        <v>61.92413288309554</v>
+        <v>937.9813695846256</v>
       </c>
       <c r="AE3">
-        <v>69.89426791062857</v>
+        <v>970.7337617861364</v>
       </c>
       <c r="AF3">
-        <v>69.15185989411451</v>
+        <v>1002.429111791528</v>
       </c>
       <c r="AG3">
-        <v>66.10928850270979</v>
+        <v>1039.522132106944</v>
       </c>
       <c r="AH3">
-        <v>51.88316262206389</v>
+        <v>665.9226293132072</v>
       </c>
       <c r="AI3">
-        <v>49.94722117279394</v>
+        <v>672.192741383854</v>
       </c>
       <c r="AJ3">
-        <v>47.47278115901688</v>
+        <v>705.0967323372719</v>
       </c>
       <c r="AK3">
-        <v>45.79825816252499</v>
+        <v>763.9849064318346</v>
       </c>
       <c r="AL3">
-        <v>52.38076167522414</v>
+        <v>821.3103686399434</v>
       </c>
       <c r="AM3">
-        <v>67.2313021111857</v>
+        <v>1089.126031883478</v>
       </c>
       <c r="AN3">
-        <v>83.59356358195072</v>
+        <v>1227.946483563715</v>
       </c>
       <c r="AO3">
-        <v>106.8711845657436</v>
+        <v>1420.447175881981</v>
       </c>
       <c r="AP3">
-        <v>136.7447883056915</v>
+        <v>1668.910237059288</v>
       </c>
       <c r="AQ3">
-        <v>152.0920724490579</v>
+        <v>1846.929641162767</v>
       </c>
       <c r="AR3">
-        <v>153.628143784994</v>
+        <v>2272.930629779489</v>
       </c>
       <c r="AS3">
-        <v>153.4563437261347</v>
+        <v>2371.185918843388</v>
       </c>
       <c r="AT3">
-        <v>151.6706682573652</v>
+        <v>2453.678369720581</v>
       </c>
       <c r="AU3">
-        <v>148.5233531624454</v>
+        <v>2521.094819511744</v>
       </c>
       <c r="AV3">
-        <v>147.3952983166288</v>
+        <v>2589.552816902894</v>
       </c>
       <c r="AW3">
-        <v>145.2453924534694</v>
+        <v>2712.272779652234</v>
       </c>
       <c r="AX3">
-        <v>152.9187810430807</v>
+        <v>2684.718740062275</v>
       </c>
       <c r="AY3">
-        <v>133.0673429490755</v>
+        <v>2509.39332159025</v>
       </c>
       <c r="AZ3">
-        <v>105.8864653200044</v>
+        <v>2224.750675507051</v>
       </c>
       <c r="BA3">
-        <v>94.34044602667856</v>
+        <v>2083.469746195747</v>
       </c>
       <c r="BB3">
-        <v>93.7599899901078</v>
+        <v>1996.367499700364</v>
       </c>
       <c r="BC3">
-        <v>92.11889638249356</v>
+        <v>1982.772850913217</v>
       </c>
       <c r="BD3">
-        <v>86.89711466422962</v>
+        <v>1918.941607326759</v>
       </c>
       <c r="BE3">
-        <v>80.69667950280352</v>
+        <v>1821.374204000532</v>
       </c>
       <c r="BF3">
-        <v>77.0988864364133</v>
+        <v>1789.318498357411</v>
       </c>
       <c r="BG3">
-        <v>74.95273063087571</v>
+        <v>1772.13875296405</v>
       </c>
       <c r="BH3">
-        <v>78.52562558425781</v>
+        <v>1856.690707564188</v>
       </c>
       <c r="BI3">
-        <v>87.85973690494212</v>
+        <v>1986.619767955935</v>
       </c>
       <c r="BJ3">
-        <v>102.8890922963263</v>
+        <v>2165.04211312737</v>
       </c>
       <c r="BK3">
-        <v>121.8048944523408</v>
+        <v>2360.099281431668</v>
       </c>
       <c r="BL3">
-        <v>141.3702711159612</v>
+        <v>2533.318188881159</v>
       </c>
       <c r="BM3">
-        <v>160.4307773622104</v>
+        <v>2764.901482080617</v>
       </c>
       <c r="BN3">
-        <v>171.7993058176134</v>
+        <v>3003.46802570641</v>
       </c>
       <c r="BO3">
-        <v>175.1470999842902</v>
+        <v>3227.648239241958</v>
       </c>
       <c r="BP3">
-        <v>174.7274290050227</v>
+        <v>3380.122520709103</v>
       </c>
       <c r="BQ3">
-        <v>172.0973479043486</v>
+        <v>3454.102733705069</v>
       </c>
       <c r="BR3">
-        <v>170.0704949901635</v>
+        <v>3531.815686076159</v>
       </c>
       <c r="BS3">
-        <v>168.0791420136004</v>
+        <v>3594.965356955955</v>
       </c>
       <c r="BT3">
-        <v>165.3694695120518</v>
+        <v>3617.456081354471</v>
       </c>
       <c r="BU3">
-        <v>158.9486133201845</v>
+        <v>3554.712008373049</v>
       </c>
       <c r="BV3">
-        <v>144.1804883085729</v>
+        <v>3385.472084496122</v>
       </c>
       <c r="BW3">
-        <v>128.3583876137668</v>
+        <v>3218.041527460303</v>
       </c>
       <c r="BX3">
-        <v>118.8713176875459</v>
+        <v>3099.995431869637</v>
       </c>
       <c r="BY3">
-        <v>115.199773539966</v>
+        <v>3037.494857975036</v>
       </c>
       <c r="BZ3">
-        <v>112.3951875943371</v>
+        <v>2997.168035561019</v>
       </c>
       <c r="CA3">
-        <v>107.4433179254804</v>
+        <v>2932.405728220116</v>
       </c>
       <c r="CB3">
-        <v>103.7234688414072</v>
+        <v>2890.980595885609</v>
       </c>
       <c r="CC3">
-        <v>102.0858318932751</v>
+        <v>2883.788618895273</v>
       </c>
       <c r="CD3">
-        <v>103.8788945882279</v>
+        <v>2926.461508202426</v>
       </c>
       <c r="CE3">
-        <v>110.2885026751298</v>
+        <v>3025.239150633959</v>
       </c>
       <c r="CF3">
-        <v>120.5083935449013</v>
+        <v>3146.041377292699</v>
       </c>
       <c r="CG3">
-        <v>135.9345031654463</v>
+        <v>3322.340851140164</v>
       </c>
       <c r="CH3">
-        <v>153.4387200397332</v>
+        <v>3514.647143077089</v>
       </c>
       <c r="CI3">
-        <v>170.4381399393942</v>
+        <v>3716.877054545263</v>
       </c>
       <c r="CJ3">
-        <v>184.2223254130613</v>
+        <v>3931.566612823825</v>
       </c>
       <c r="CK3">
-        <v>190.9785961255045</v>
+        <v>4103.36311874869</v>
       </c>
       <c r="CL3">
-        <v>193.9371049039974</v>
+        <v>4283.116960970561</v>
       </c>
       <c r="CM3">
-        <v>193.5004539987076</v>
+        <v>4414.066756025384</v>
       </c>
       <c r="CN3">
-        <v>191.5492015203315</v>
+        <v>4500.688744457972</v>
       </c>
       <c r="CO3">
-        <v>188.9967565374654</v>
+        <v>4560.117778209549</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>29416021.22298668</v>
+        <v>2058513.65379853</v>
       </c>
       <c r="E4">
-        <v>29752543.48256733</v>
+        <v>1849070.7324387</v>
       </c>
       <c r="F4">
-        <v>32640360.22263275</v>
+        <v>1614211.487021001</v>
       </c>
       <c r="G4">
-        <v>32742052.79617395</v>
+        <v>1872422.415413105</v>
       </c>
       <c r="H4">
-        <v>29814477.72354999</v>
+        <v>2057603.923016008</v>
       </c>
       <c r="I4">
-        <v>29244289.21199537</v>
+        <v>1955585.458153078</v>
       </c>
       <c r="J4">
-        <v>32253802.80747936</v>
+        <v>2126122.79044137</v>
       </c>
       <c r="K4">
-        <v>36499217.00607385</v>
+        <v>1950195.714902815</v>
       </c>
       <c r="L4">
-        <v>36252716.06129785</v>
+        <v>1937125.168109498</v>
       </c>
       <c r="M4">
-        <v>38565943.90993576</v>
+        <v>2583686.95353824</v>
       </c>
       <c r="N4">
-        <v>41740276.02982489</v>
+        <v>2451854.52023671</v>
       </c>
       <c r="O4">
-        <v>38729793.18795399</v>
+        <v>2428722.65470302</v>
       </c>
       <c r="P4">
-        <v>43020977.52098526</v>
+        <v>12588243.05221806</v>
       </c>
       <c r="Q4">
-        <v>44502432.37994969</v>
+        <v>12652645.13780988</v>
       </c>
       <c r="R4">
-        <v>45971307.43048685</v>
+        <v>12703401.04240849</v>
       </c>
       <c r="S4">
-        <v>52508810.02126887</v>
+        <v>39647031.56865913</v>
       </c>
       <c r="T4">
-        <v>54116493.17810636</v>
+        <v>39728907.17318362</v>
       </c>
       <c r="U4">
-        <v>55730319.43964383</v>
+        <v>39824742.33940063</v>
       </c>
       <c r="V4">
-        <v>57346829.84775066</v>
+        <v>39933165.57604596</v>
       </c>
       <c r="W4">
-        <v>58963494.23694084</v>
+        <v>40052354.75892843</v>
       </c>
       <c r="X4">
-        <v>60047821.95127807</v>
+        <v>41256955.93081465</v>
       </c>
       <c r="Y4">
-        <v>61562769.84501933</v>
+        <v>41397585.41102928</v>
       </c>
       <c r="Z4">
-        <v>63072335.13816144</v>
+        <v>41534982.04675683</v>
       </c>
       <c r="AA4">
-        <v>64581569.48084066</v>
+        <v>41685141.95556546</v>
       </c>
       <c r="AB4">
-        <v>66098393.0897158</v>
+        <v>41851527.06595459</v>
       </c>
       <c r="AC4">
-        <v>61896639.36876549</v>
+        <v>11508094.55162613</v>
       </c>
       <c r="AD4">
-        <v>63431399.12907967</v>
+        <v>11720541.8168315</v>
       </c>
       <c r="AE4">
-        <v>64972967.259581</v>
+        <v>11973872.88928298</v>
       </c>
       <c r="AF4">
-        <v>66510542.16061869</v>
+        <v>12215349.5672786</v>
       </c>
       <c r="AG4">
-        <v>68054644.84722047</v>
+        <v>12525501.93473181</v>
       </c>
       <c r="AH4">
-        <v>68634037.75643414</v>
+        <v>3338970.897624518</v>
       </c>
       <c r="AI4">
-        <v>70255329.93805179</v>
+        <v>3657267.047407392</v>
       </c>
       <c r="AJ4">
-        <v>71915905.41789639</v>
+        <v>4189030.258731154</v>
       </c>
       <c r="AK4">
-        <v>73630679.49324371</v>
+        <v>4957392.434738518</v>
       </c>
       <c r="AL4">
-        <v>75419569.940366</v>
+        <v>5933808.817971491</v>
       </c>
       <c r="AM4">
-        <v>77241107.75630754</v>
+        <v>11541336.57626186</v>
       </c>
       <c r="AN4">
-        <v>79094381.34710181</v>
+        <v>13141550.76087363</v>
       </c>
       <c r="AO4">
-        <v>81020707.48987173</v>
+        <v>15006499.49982272</v>
       </c>
       <c r="AP4">
-        <v>83006456.77812411</v>
+        <v>17120109.88402248</v>
       </c>
       <c r="AQ4">
-        <v>84851142.40272292</v>
+        <v>18739765.6203928</v>
       </c>
       <c r="AR4">
-        <v>86531074.8397374</v>
+        <v>26178520.37910436</v>
       </c>
       <c r="AS4">
-        <v>88158456.47461385</v>
+        <v>27051380.37351858</v>
       </c>
       <c r="AT4">
-        <v>89724728.64247914</v>
+        <v>27670115.32483211</v>
       </c>
       <c r="AU4">
-        <v>91225522.44343697</v>
+        <v>28002666.42105814</v>
       </c>
       <c r="AV4">
-        <v>93237822.21814889</v>
+        <v>28100860.18583431</v>
       </c>
       <c r="AW4">
-        <v>94884538.8350106</v>
+        <v>29585553.63838943</v>
       </c>
       <c r="AX4">
-        <v>96490119.82395335</v>
+        <v>28859176.22049416</v>
       </c>
       <c r="AY4">
-        <v>97706040.28430352</v>
+        <v>27434537.12042921</v>
       </c>
       <c r="AZ4">
-        <v>98816075.2169123</v>
+        <v>25531578.06721031</v>
       </c>
       <c r="BA4">
-        <v>100055234.261196</v>
+        <v>24116576.72786861</v>
       </c>
       <c r="BB4">
-        <v>101417590.8865955</v>
+        <v>22015372.89763173</v>
       </c>
       <c r="BC4">
-        <v>102896893.8044493</v>
+        <v>21117205.60995255</v>
       </c>
       <c r="BD4">
-        <v>104381597.4920744</v>
+        <v>20248565.15582273</v>
       </c>
       <c r="BE4">
-        <v>105895222.9948742</v>
+        <v>19559241.12301563</v>
       </c>
       <c r="BF4">
-        <v>107483271.7659666</v>
+        <v>19148763.07717918</v>
       </c>
       <c r="BG4">
-        <v>109134707.4459112</v>
+        <v>18399626.92427571</v>
       </c>
       <c r="BH4">
-        <v>110969623.0037435</v>
+        <v>18656034.57206877</v>
       </c>
       <c r="BI4">
-        <v>112881363.0289317</v>
+        <v>19413730.34053142</v>
       </c>
       <c r="BJ4">
-        <v>114860699.8697547</v>
+        <v>20589967.50929762</v>
       </c>
       <c r="BK4">
-        <v>116893716.5288364</v>
+        <v>21995729.82344142</v>
       </c>
       <c r="BL4">
-        <v>118938309.2111653</v>
+        <v>23387905.96573596</v>
       </c>
       <c r="BM4">
-        <v>121054350.5638746</v>
+        <v>25013184.19142148</v>
       </c>
       <c r="BN4">
-        <v>123102689.750113</v>
+        <v>26539223.5752375</v>
       </c>
       <c r="BO4">
-        <v>125073205.6557889</v>
+        <v>27865085.57996164</v>
       </c>
       <c r="BP4">
-        <v>126997937.873684</v>
+        <v>28869061.93380038</v>
       </c>
       <c r="BQ4">
-        <v>128959902.8341792</v>
+        <v>29575895.13905627</v>
       </c>
       <c r="BR4">
-        <v>130952681.8221969</v>
+        <v>30142689.71976411</v>
       </c>
       <c r="BS4">
-        <v>132920005.0500755</v>
+        <v>30523749.49342185</v>
       </c>
       <c r="BT4">
-        <v>134850629.5191502</v>
+        <v>30622651.21571583</v>
       </c>
       <c r="BU4">
-        <v>136714610.2152199</v>
+        <v>30307223.38037974</v>
       </c>
       <c r="BV4">
-        <v>138512716.8251173</v>
+        <v>29425937.05750371</v>
       </c>
       <c r="BW4">
-        <v>140322825.9200846</v>
+        <v>28589629.75314165</v>
       </c>
       <c r="BX4">
-        <v>142179120.5369937</v>
+        <v>27980314.49507371</v>
       </c>
       <c r="BY4">
-        <v>144089007.9226297</v>
+        <v>27618163.51476871</v>
       </c>
       <c r="BZ4">
-        <v>146014466.6018847</v>
+        <v>27237463.23668444</v>
       </c>
       <c r="CA4">
-        <v>147976350.4626343</v>
+        <v>26570081.27777775</v>
       </c>
       <c r="CB4">
-        <v>150008187.4019711</v>
+        <v>26194991.11679161</v>
       </c>
       <c r="CC4">
-        <v>152074131.109218</v>
+        <v>25924001.20623178</v>
       </c>
       <c r="CD4">
-        <v>154187813.7129978</v>
+        <v>25806033.90525633</v>
       </c>
       <c r="CE4">
-        <v>156356156.9054005</v>
+        <v>25862621.92545932</v>
       </c>
       <c r="CF4">
-        <v>158613236.1250404</v>
+        <v>25877090.11958053</v>
       </c>
       <c r="CG4">
-        <v>160979838.7522834</v>
+        <v>26662744.10272996</v>
       </c>
       <c r="CH4">
-        <v>163377183.1053597</v>
+        <v>27605039.55145346</v>
       </c>
       <c r="CI4">
-        <v>165783516.9912697</v>
+        <v>28627138.13461296</v>
       </c>
       <c r="CJ4">
-        <v>168172365.4773826</v>
+        <v>29666531.93844309</v>
       </c>
       <c r="CK4">
-        <v>170525028.05167</v>
+        <v>29913955.91788256</v>
       </c>
       <c r="CL4">
-        <v>172920179.0640727</v>
+        <v>30726476.30606404</v>
       </c>
       <c r="CM4">
-        <v>175283456.6818862</v>
+        <v>31356621.14558505</v>
       </c>
       <c r="CN4">
-        <v>177627650.6234123</v>
+        <v>31828531.9446912</v>
       </c>
       <c r="CO4">
-        <v>179956929.8175204</v>
+        <v>32176788.33932928</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1883239.867233883</v>
+        <v>2799009.773418657</v>
       </c>
       <c r="E5">
-        <v>1106877.257309693</v>
+        <v>1874495.909085851</v>
       </c>
       <c r="F5">
-        <v>555101.1308931125</v>
+        <v>1752285.718343419</v>
       </c>
       <c r="G5">
-        <v>341657.615132743</v>
+        <v>1689027.878578593</v>
       </c>
       <c r="H5">
-        <v>320654.4679719955</v>
+        <v>1620802.384841924</v>
       </c>
       <c r="I5">
-        <v>228598.6195443779</v>
+        <v>2025151.293884203</v>
       </c>
       <c r="J5">
-        <v>188750.46628314</v>
+        <v>2228251.244393013</v>
       </c>
       <c r="K5">
-        <v>245055.0285685498</v>
+        <v>1939266.879575371</v>
       </c>
       <c r="L5">
-        <v>442998.5953207531</v>
+        <v>1794734.052847663</v>
       </c>
       <c r="M5">
-        <v>393091.5325491357</v>
+        <v>2008407.51454335</v>
       </c>
       <c r="N5">
-        <v>498346.3394774286</v>
+        <v>2111733.456336341</v>
       </c>
       <c r="O5">
-        <v>625302.8349501416</v>
+        <v>2750111.476350155</v>
       </c>
       <c r="P5">
-        <v>3968893.126506987</v>
+        <v>21233183.72742333</v>
       </c>
       <c r="Q5">
-        <v>3988170.129033832</v>
+        <v>21266979.40960704</v>
       </c>
       <c r="R5">
-        <v>4011934.48825479</v>
+        <v>21309889.89181976</v>
       </c>
       <c r="S5">
-        <v>12611817.82482033</v>
+        <v>70582445.43860812</v>
       </c>
       <c r="T5">
-        <v>12645385.4898517</v>
+        <v>70648173.56793749</v>
       </c>
       <c r="U5">
-        <v>12683834.41416071</v>
+        <v>70727873.58259805</v>
       </c>
       <c r="V5">
-        <v>12726843.60457537</v>
+        <v>70823889.89260964</v>
       </c>
       <c r="W5">
-        <v>12773907.80714616</v>
+        <v>70939623.15034471</v>
       </c>
       <c r="X5">
-        <v>12260124.96385425</v>
+        <v>74722952.11790262</v>
       </c>
       <c r="Y5">
-        <v>12313724.83607467</v>
+        <v>74896015.18880053</v>
       </c>
       <c r="Z5">
-        <v>12370379.62590123</v>
+        <v>75112667.68477105</v>
       </c>
       <c r="AA5">
-        <v>12430963.88609382</v>
+        <v>75388628.06735641</v>
       </c>
       <c r="AB5">
-        <v>12497732.47920541</v>
+        <v>75745457.97978795</v>
       </c>
       <c r="AC5">
-        <v>2562721.325170125</v>
+        <v>21894480.63144593</v>
       </c>
       <c r="AD5">
-        <v>2656837.454056222</v>
+        <v>22507222.70298095</v>
       </c>
       <c r="AE5">
-        <v>2777202.916741619</v>
+        <v>23311885.63501319</v>
       </c>
       <c r="AF5">
-        <v>2935630.866285049</v>
+        <v>24362241.43091308</v>
       </c>
       <c r="AG5">
-        <v>3145806.006606509</v>
+        <v>25718363.3541312</v>
       </c>
       <c r="AH5">
-        <v>1528189.452548165</v>
+        <v>9245634.732059337</v>
       </c>
       <c r="AI5">
-        <v>1883890.964858906</v>
+        <v>11143517.84785006</v>
       </c>
       <c r="AJ5">
-        <v>2329430.584847355</v>
+        <v>13467098.37239644</v>
       </c>
       <c r="AK5">
-        <v>2870334.720764598</v>
+        <v>16582958.23604633</v>
       </c>
       <c r="AL5">
-        <v>3505511.88567773</v>
+        <v>20238358.14120704</v>
       </c>
       <c r="AM5">
-        <v>4225902.165784023</v>
+        <v>32060219.47441105</v>
       </c>
       <c r="AN5">
-        <v>5013639.580012257</v>
+        <v>36591816.86383799</v>
       </c>
       <c r="AO5">
-        <v>5841895.701692993</v>
+        <v>41389637.01217445</v>
       </c>
       <c r="AP5">
-        <v>6675553.930218308</v>
+        <v>46272204.34373614</v>
       </c>
       <c r="AQ5">
-        <v>7472976.77362712</v>
+        <v>51015922.18796816</v>
       </c>
       <c r="AR5">
-        <v>8189063.526929128</v>
+        <v>66051832.73895313</v>
       </c>
       <c r="AS5">
-        <v>8779379.688036041</v>
+        <v>69766178.64469954</v>
       </c>
       <c r="AT5">
-        <v>9205036.792128801</v>
+        <v>72611826.21451035</v>
       </c>
       <c r="AU5">
-        <v>9437525.847921753</v>
+        <v>74413545.88408007</v>
       </c>
       <c r="AV5">
-        <v>10739904.56988465</v>
+        <v>75071414.06574577</v>
       </c>
       <c r="AW5">
-        <v>10921120.65468294</v>
+        <v>77697873.52992734</v>
       </c>
       <c r="AX5">
-        <v>10554139.45318127</v>
+        <v>76124862.94180734</v>
       </c>
       <c r="AY5">
-        <v>10033041.05435862</v>
+        <v>73636602.1635723</v>
       </c>
       <c r="AZ5">
-        <v>9401201.989803994</v>
+        <v>70458147.63524315</v>
       </c>
       <c r="BA5">
-        <v>8708428.697159886</v>
+        <v>66858489.87226418</v>
       </c>
       <c r="BB5">
-        <v>7821170.457951413</v>
+        <v>61310822.22803971</v>
       </c>
       <c r="BC5">
-        <v>7161020.518298413</v>
+        <v>57747087.26723559</v>
       </c>
       <c r="BD5">
-        <v>6587668.263339768</v>
+        <v>54625949.21374433</v>
       </c>
       <c r="BE5">
-        <v>6137916.563519901</v>
+        <v>52187056.87597901</v>
       </c>
       <c r="BF5">
-        <v>5837128.914558032</v>
+        <v>50612685.50813064</v>
       </c>
       <c r="BG5">
-        <v>5514185.744042927</v>
+        <v>49008803.67752152</v>
       </c>
       <c r="BH5">
-        <v>5533484.984331774</v>
+        <v>49414362.15426481</v>
       </c>
       <c r="BI5">
-        <v>5698198.619294968</v>
+        <v>50782284.5006138</v>
       </c>
       <c r="BJ5">
-        <v>5985883.96143749</v>
+        <v>53008335.01168519</v>
       </c>
       <c r="BK5">
-        <v>6369287.992827133</v>
+        <v>55944454.23015974</v>
       </c>
       <c r="BL5">
-        <v>6682037.896254925</v>
+        <v>59277829.72806141</v>
       </c>
       <c r="BM5">
-        <v>7171511.975299779</v>
+        <v>63092249.55811818</v>
       </c>
       <c r="BN5">
-        <v>7673807.761608247</v>
+        <v>67054369.37111738</v>
       </c>
       <c r="BO5">
-        <v>8164820.081394009</v>
+        <v>70971190.19421303</v>
       </c>
       <c r="BP5">
-        <v>8622801.224531218</v>
+        <v>74662092.83188689</v>
       </c>
       <c r="BQ5">
-        <v>8932725.367599655</v>
+        <v>77999931.95354038</v>
       </c>
       <c r="BR5">
-        <v>9270835.739081375</v>
+        <v>80793634.5371864</v>
       </c>
       <c r="BS5">
-        <v>9529040.908298111</v>
+        <v>82983056.40436724</v>
       </c>
       <c r="BT5">
-        <v>9699399.777550023</v>
+        <v>84516670.98284602</v>
       </c>
       <c r="BU5">
-        <v>9778442.686449789</v>
+        <v>85384327.55127667</v>
       </c>
       <c r="BV5">
-        <v>9673770.816834658</v>
+        <v>85330847.57277657</v>
       </c>
       <c r="BW5">
-        <v>9579030.37297154</v>
+        <v>84996930.13350978</v>
       </c>
       <c r="BX5">
-        <v>9411732.013876697</v>
+        <v>84198652.24249732</v>
       </c>
       <c r="BY5">
-        <v>9187696.034421315</v>
+        <v>83063330.68131766</v>
       </c>
       <c r="BZ5">
-        <v>8926550.931120209</v>
+        <v>81733950.44319506</v>
       </c>
       <c r="CA5">
-        <v>8552057.248932218</v>
+        <v>79849806.89017791</v>
       </c>
       <c r="CB5">
-        <v>8283776.275946943</v>
+        <v>78572197.37009133</v>
       </c>
       <c r="CC5">
-        <v>8044869.763981304</v>
+        <v>77521348.91970013</v>
       </c>
       <c r="CD5">
-        <v>7853643.454290832</v>
+        <v>76804602.81754853</v>
       </c>
       <c r="CE5">
-        <v>7723667.906789919</v>
+        <v>76501306.65620098</v>
       </c>
       <c r="CF5">
-        <v>7551996.725170035</v>
+        <v>75785879.47193657</v>
       </c>
       <c r="CG5">
-        <v>7562698.738648575</v>
+        <v>76418222.68152137</v>
       </c>
       <c r="CH5">
-        <v>7641728.419528527</v>
+        <v>77506952.7914077</v>
       </c>
       <c r="CI5">
-        <v>7781491.212918572</v>
+        <v>79004993.57256526</v>
       </c>
       <c r="CJ5">
-        <v>7970958.541949675</v>
+        <v>80841840.12808582</v>
       </c>
       <c r="CK5">
-        <v>8045183.78181272</v>
+        <v>81559729.3165952</v>
       </c>
       <c r="CL5">
-        <v>8292829.601530682</v>
+        <v>83801232.03304528</v>
       </c>
       <c r="CM5">
-        <v>8547519.23396752</v>
+        <v>86094847.44612393</v>
       </c>
       <c r="CN5">
-        <v>8795206.340243852</v>
+        <v>88342390.23472819</v>
       </c>
       <c r="CO5">
-        <v>9023316.103562061</v>
+        <v>90454590.17090987</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>291.1427982260567</v>
+        <v>1336.112886539807</v>
       </c>
       <c r="E2">
-        <v>627.3848291398834</v>
+        <v>3077.592273296037</v>
       </c>
       <c r="F2">
-        <v>1183.202333680189</v>
+        <v>4818.169948184316</v>
       </c>
       <c r="G2">
-        <v>1594.996686720693</v>
+        <v>6472.176415233645</v>
       </c>
       <c r="H2">
-        <v>2649.451926626781</v>
+        <v>8690.559753895257</v>
       </c>
       <c r="I2">
-        <v>3255.339427805175</v>
+        <v>10290.969426373</v>
       </c>
       <c r="J2">
-        <v>3931.479065433083</v>
+        <v>13186.75610742519</v>
       </c>
       <c r="K2">
-        <v>4709.212223664834</v>
+        <v>16065.55618129674</v>
       </c>
       <c r="L2">
-        <v>5329.206659024716</v>
+        <v>18627.1104174031</v>
       </c>
       <c r="M2">
-        <v>6090.169932468641</v>
+        <v>20988.15458310743</v>
       </c>
       <c r="N2">
-        <v>6477.104228410857</v>
+        <v>26038.87053999199</v>
       </c>
       <c r="O2">
-        <v>6908.276996756077</v>
+        <v>29104.76428473895</v>
       </c>
       <c r="P2">
-        <v>7775.763602179984</v>
+        <v>35249.83075227054</v>
       </c>
       <c r="Q2">
-        <v>8661.944864503943</v>
+        <v>41881.77748367054</v>
       </c>
       <c r="R2">
-        <v>9567.592599631875</v>
+        <v>49007.37719967418</v>
       </c>
       <c r="S2">
-        <v>11789.65579856287</v>
+        <v>64587.18833490703</v>
       </c>
       <c r="T2">
-        <v>14002.94157557799</v>
+        <v>81268.71257393545</v>
       </c>
       <c r="U2">
-        <v>16219.13036428623</v>
+        <v>99063.91342368737</v>
       </c>
       <c r="V2">
-        <v>18452.46774588522</v>
+        <v>117993.780319248</v>
       </c>
       <c r="W2">
-        <v>20704.58836169639</v>
+        <v>138075.0174583056</v>
       </c>
       <c r="X2">
-        <v>22787.20328595109</v>
+        <v>158254.2058802085</v>
       </c>
       <c r="Y2">
-        <v>24896.70879505934</v>
+        <v>179541.0071795917</v>
       </c>
       <c r="Z2">
-        <v>27026.30972707249</v>
+        <v>201944.5841196841</v>
       </c>
       <c r="AA2">
-        <v>29179.95397563359</v>
+        <v>225488.3219958579</v>
       </c>
       <c r="AB2">
-        <v>31400.95947053196</v>
+        <v>250204.5071771081</v>
       </c>
       <c r="AC2">
-        <v>32233.62414113947</v>
+        <v>261760.9243758435</v>
       </c>
       <c r="AD2">
-        <v>33188.6255513308</v>
+        <v>273638.8414434606</v>
       </c>
       <c r="AE2">
-        <v>34262.11715700367</v>
+        <v>285929.3207276966</v>
       </c>
       <c r="AF2">
-        <v>35325.45512200399</v>
+        <v>298619.1854602251</v>
       </c>
       <c r="AG2">
-        <v>36344.68047658825</v>
+        <v>311776.1344617498</v>
       </c>
       <c r="AH2">
-        <v>37152.88762320338</v>
+        <v>320213.6040927002</v>
       </c>
       <c r="AI2">
-        <v>37933.3654587916</v>
+        <v>328730.1730688344</v>
       </c>
       <c r="AJ2">
-        <v>38678.17587488861</v>
+        <v>337659.5607131764</v>
       </c>
       <c r="AK2">
-        <v>39399.14662358978</v>
+        <v>347327.4457214348</v>
       </c>
       <c r="AL2">
-        <v>40218.21754055901</v>
+        <v>357714.446068818</v>
       </c>
       <c r="AM2">
-        <v>41257.49523350716</v>
+        <v>371475.8684730645</v>
       </c>
       <c r="AN2">
-        <v>42539.31129850777</v>
+        <v>386978.2277078809</v>
       </c>
       <c r="AO2">
-        <v>44165.79222910105</v>
+        <v>404893.9717685207</v>
       </c>
       <c r="AP2">
-        <v>46234.34402497532</v>
+        <v>425924.0736879563</v>
       </c>
       <c r="AQ2">
-        <v>48530.44620020887</v>
+        <v>449186.1147627642</v>
       </c>
       <c r="AR2">
-        <v>50850.1627809429</v>
+        <v>477820.4157590412</v>
       </c>
       <c r="AS2">
-        <v>53168.25842993433</v>
+        <v>507688.6134995703</v>
       </c>
       <c r="AT2">
-        <v>55460.88186787221</v>
+        <v>538593.0051890069</v>
       </c>
       <c r="AU2">
-        <v>57707.90379693006</v>
+        <v>570344.4375362401</v>
       </c>
       <c r="AV2">
-        <v>59939.25834596679</v>
+        <v>602955.6056480111</v>
       </c>
       <c r="AW2">
-        <v>62139.81188471903</v>
+        <v>637113.6461343038</v>
       </c>
       <c r="AX2">
-        <v>64456.54855430378</v>
+        <v>670928.5301920448</v>
       </c>
       <c r="AY2">
-        <v>66480.99664949391</v>
+        <v>702549.1253268836</v>
       </c>
       <c r="AZ2">
-        <v>68104.9048979503</v>
+        <v>730606.0202163594</v>
       </c>
       <c r="BA2">
-        <v>69559.15434781108</v>
+        <v>756894.7275102597</v>
       </c>
       <c r="BB2">
-        <v>71005.51424046641</v>
+        <v>782084.48524449</v>
       </c>
       <c r="BC2">
-        <v>72428.58383479125</v>
+        <v>807105.1706445335</v>
       </c>
       <c r="BD2">
-        <v>73775.49814172745</v>
+        <v>831327.7235989247</v>
       </c>
       <c r="BE2">
-        <v>75031.81944009033</v>
+        <v>854329.8341686286</v>
       </c>
       <c r="BF2">
-        <v>76236.00070303424</v>
+        <v>876932.2846915199</v>
       </c>
       <c r="BG2">
-        <v>77409.32077589433</v>
+        <v>899314.9521011708</v>
       </c>
       <c r="BH2">
-        <v>78636.50154125944</v>
+        <v>922758.9371106352</v>
       </c>
       <c r="BI2">
-        <v>80002.63418927738</v>
+        <v>947832.9149894564</v>
       </c>
       <c r="BJ2">
-        <v>81591.83265528119</v>
+        <v>975144.5524252675</v>
       </c>
       <c r="BK2">
-        <v>83461.49870463807</v>
+        <v>1004902.429458316</v>
       </c>
       <c r="BL2">
-        <v>85621.10246350412</v>
+        <v>1036829.469665893</v>
       </c>
       <c r="BM2">
-        <v>88063.37932630148</v>
+        <v>1071660.444218609</v>
       </c>
       <c r="BN2">
-        <v>90674.7395383527</v>
+        <v>1109482.821055179</v>
       </c>
       <c r="BO2">
-        <v>93336.73567599907</v>
+        <v>1150116.356243625</v>
       </c>
       <c r="BP2">
-        <v>95993.7277073266</v>
+        <v>1192662.849370779</v>
       </c>
       <c r="BQ2">
-        <v>98613.02368598584</v>
+        <v>1236137.202268639</v>
       </c>
       <c r="BR2">
-        <v>101203.6541434038</v>
+        <v>1280587.89305321</v>
       </c>
       <c r="BS2">
-        <v>103766.1336658362</v>
+        <v>1325832.32766795</v>
       </c>
       <c r="BT2">
-        <v>106289.843494081</v>
+        <v>1371361.046501921</v>
       </c>
       <c r="BU2">
-        <v>108719.9671304803</v>
+        <v>1416106.275375334</v>
       </c>
       <c r="BV2">
-        <v>110933.1739773674</v>
+        <v>1458731.689551832</v>
       </c>
       <c r="BW2">
-        <v>112914.0173593517</v>
+        <v>1499262.08829699</v>
       </c>
       <c r="BX2">
-        <v>114756.043346008</v>
+        <v>1538315.903864329</v>
       </c>
       <c r="BY2">
-        <v>116545.129673831</v>
+        <v>1576588.773143339</v>
       </c>
       <c r="BZ2">
-        <v>118294.0788681672</v>
+        <v>1614358.361357159</v>
       </c>
       <c r="CA2">
-        <v>119971.127738679</v>
+        <v>1651316.540196605</v>
       </c>
       <c r="CB2">
-        <v>121594.6065159155</v>
+        <v>1687757.748268221</v>
       </c>
       <c r="CC2">
-        <v>123195.2689440094</v>
+        <v>1724110.816997791</v>
       </c>
       <c r="CD2">
-        <v>124823.7837207227</v>
+        <v>1761000.395088013</v>
       </c>
       <c r="CE2">
-        <v>126548.3313207279</v>
+        <v>1799129.311898002</v>
       </c>
       <c r="CF2">
-        <v>128425.1241261702</v>
+        <v>1838770.98513913</v>
       </c>
       <c r="CG2">
-        <v>130531.2008857046</v>
+        <v>1880623.353958995</v>
       </c>
       <c r="CH2">
-        <v>132897.2559976837</v>
+        <v>1924887.049172915</v>
       </c>
       <c r="CI2">
-        <v>135515.8409387341</v>
+        <v>1971686.481396913</v>
       </c>
       <c r="CJ2">
-        <v>138339.4799776763</v>
+        <v>2021177.787317817</v>
       </c>
       <c r="CK2">
-        <v>141264.2701046087</v>
+        <v>2072819.679827181</v>
       </c>
       <c r="CL2">
-        <v>144234.3359129307</v>
+        <v>2126715.965562958</v>
       </c>
       <c r="CM2">
-        <v>147199.5396968284</v>
+        <v>2182255.377655969</v>
       </c>
       <c r="CN2">
-        <v>150137.5131478912</v>
+        <v>2238882.692759287</v>
       </c>
       <c r="CO2">
-        <v>153039.3751430833</v>
+        <v>2296257.274565006</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18.32302388542445</v>
+        <v>104.1613861802878</v>
       </c>
       <c r="E3">
-        <v>39.61127737626586</v>
+        <v>240.3349743844744</v>
       </c>
       <c r="F3">
-        <v>75.51483344018982</v>
+        <v>376.2634459149044</v>
       </c>
       <c r="G3">
-        <v>101.7462723055256</v>
+        <v>505.3353908899616</v>
       </c>
       <c r="H3">
-        <v>171.2513030916926</v>
+        <v>679.2400275788792</v>
       </c>
       <c r="I3">
-        <v>210.6159462583943</v>
+        <v>804.1946253124481</v>
       </c>
       <c r="J3">
-        <v>254.5739800884131</v>
+        <v>1031.555223797257</v>
       </c>
       <c r="K3">
-        <v>305.1852186693317</v>
+        <v>1257.347191776376</v>
       </c>
       <c r="L3">
-        <v>345.2521048672259</v>
+        <v>1458.085496028066</v>
       </c>
       <c r="M3">
-        <v>394.705901653937</v>
+        <v>1642.833500337875</v>
       </c>
       <c r="N3">
-        <v>418.8737009652405</v>
+        <v>2040.426780590783</v>
       </c>
       <c r="O3">
-        <v>446.1732898417847</v>
+        <v>2281.05993325003</v>
       </c>
       <c r="P3">
-        <v>502.6857292281851</v>
+        <v>2765.332283414399</v>
       </c>
       <c r="Q3">
-        <v>560.4201782569679</v>
+        <v>3288.116930949668</v>
       </c>
       <c r="R3">
-        <v>619.4290771349541</v>
+        <v>3849.95481363068</v>
       </c>
       <c r="S3">
-        <v>766.7727887553898</v>
+        <v>5080.956170220394</v>
       </c>
       <c r="T3">
-        <v>913.4675376332032</v>
+        <v>6399.124614487198</v>
       </c>
       <c r="U3">
-        <v>1060.304280296827</v>
+        <v>7805.414770492514</v>
       </c>
       <c r="V3">
-        <v>1208.247750946259</v>
+        <v>9301.501953206589</v>
       </c>
       <c r="W3">
-        <v>1357.40864020405</v>
+        <v>10888.71931209205</v>
       </c>
       <c r="X3">
-        <v>1495.147337378289</v>
+        <v>12483.67170208066</v>
       </c>
       <c r="Y3">
-        <v>1634.654376400899</v>
+        <v>14166.33051874408</v>
       </c>
       <c r="Z3">
-        <v>1775.469619650675</v>
+        <v>15937.42658868773</v>
       </c>
       <c r="AA3">
-        <v>1917.860431480322</v>
+        <v>17798.82557261355</v>
       </c>
       <c r="AB3">
-        <v>2064.760408364888</v>
+        <v>19753.1033555321</v>
       </c>
       <c r="AC3">
-        <v>2118.453706491047</v>
+        <v>20665.5983560596</v>
       </c>
       <c r="AD3">
-        <v>2180.377839374142</v>
+        <v>21603.57972564422</v>
       </c>
       <c r="AE3">
-        <v>2250.272107284771</v>
+        <v>22574.31348743036</v>
       </c>
       <c r="AF3">
-        <v>2319.423967178885</v>
+        <v>23576.74259922189</v>
       </c>
       <c r="AG3">
-        <v>2385.533255681595</v>
+        <v>24616.26473132883</v>
       </c>
       <c r="AH3">
-        <v>2437.416418303659</v>
+        <v>25282.18736064204</v>
       </c>
       <c r="AI3">
-        <v>2487.363639476453</v>
+        <v>25954.38010202589</v>
       </c>
       <c r="AJ3">
-        <v>2534.836420635469</v>
+        <v>26659.47683436317</v>
       </c>
       <c r="AK3">
-        <v>2580.634678797995</v>
+        <v>27423.461740795</v>
       </c>
       <c r="AL3">
-        <v>2633.015440473219</v>
+        <v>28244.77210943494</v>
       </c>
       <c r="AM3">
-        <v>2700.246742584405</v>
+        <v>29333.89814131842</v>
       </c>
       <c r="AN3">
-        <v>2783.840306166355</v>
+        <v>30561.84462488214</v>
       </c>
       <c r="AO3">
-        <v>2890.711490732099</v>
+        <v>31982.29180076412</v>
       </c>
       <c r="AP3">
-        <v>3027.45627903779</v>
+        <v>33651.20203782341</v>
       </c>
       <c r="AQ3">
-        <v>3179.548351486848</v>
+        <v>35498.13167898617</v>
       </c>
       <c r="AR3">
-        <v>3333.176495271842</v>
+        <v>37771.06230876566</v>
       </c>
       <c r="AS3">
-        <v>3486.632838997977</v>
+        <v>40142.24822760905</v>
       </c>
       <c r="AT3">
-        <v>3638.303507255343</v>
+        <v>42595.92659732964</v>
       </c>
       <c r="AU3">
-        <v>3786.826860417788</v>
+        <v>45117.02141684138</v>
       </c>
       <c r="AV3">
-        <v>3934.222158734417</v>
+        <v>47706.57423374427</v>
       </c>
       <c r="AW3">
-        <v>4079.467551187886</v>
+        <v>50418.84701339651</v>
       </c>
       <c r="AX3">
-        <v>4232.386332230966</v>
+        <v>53103.56575345878</v>
       </c>
       <c r="AY3">
-        <v>4365.453675180042</v>
+        <v>55612.95907504903</v>
       </c>
       <c r="AZ3">
-        <v>4471.340140500046</v>
+        <v>57837.70975055608</v>
       </c>
       <c r="BA3">
-        <v>4565.680586526724</v>
+        <v>59921.17949675183</v>
       </c>
       <c r="BB3">
-        <v>4659.440576516832</v>
+        <v>61917.54699645219</v>
       </c>
       <c r="BC3">
-        <v>4751.559472899326</v>
+        <v>63900.3198473654</v>
       </c>
       <c r="BD3">
-        <v>4838.456587563555</v>
+        <v>65819.26145469217</v>
       </c>
       <c r="BE3">
-        <v>4919.153267066359</v>
+        <v>67640.6356586927</v>
       </c>
       <c r="BF3">
-        <v>4996.252153502773</v>
+        <v>69429.95415705012</v>
       </c>
       <c r="BG3">
-        <v>5071.204884133648</v>
+        <v>71202.09291001417</v>
       </c>
       <c r="BH3">
-        <v>5149.730509717906</v>
+        <v>73058.78361757836</v>
       </c>
       <c r="BI3">
-        <v>5237.590246622848</v>
+        <v>75045.4033855343</v>
       </c>
       <c r="BJ3">
-        <v>5340.479338919175</v>
+        <v>77210.44549866168</v>
       </c>
       <c r="BK3">
-        <v>5462.284233371515</v>
+        <v>79570.54478009335</v>
       </c>
       <c r="BL3">
-        <v>5603.654504487477</v>
+        <v>82103.8629689745</v>
       </c>
       <c r="BM3">
-        <v>5764.085281849687</v>
+        <v>84868.76445105512</v>
       </c>
       <c r="BN3">
-        <v>5935.8845876673</v>
+        <v>87872.23247676154</v>
       </c>
       <c r="BO3">
-        <v>6111.031687651591</v>
+        <v>91099.88071600349</v>
       </c>
       <c r="BP3">
-        <v>6285.759116656614</v>
+        <v>94480.0032367126</v>
       </c>
       <c r="BQ3">
-        <v>6457.856464560962</v>
+        <v>97934.10597041766</v>
       </c>
       <c r="BR3">
-        <v>6627.926959551126</v>
+        <v>101465.9216564938</v>
       </c>
       <c r="BS3">
-        <v>6796.006101564726</v>
+        <v>105060.8870134498</v>
       </c>
       <c r="BT3">
-        <v>6961.375571076778</v>
+        <v>108678.3430948043</v>
       </c>
       <c r="BU3">
-        <v>7120.324184396963</v>
+        <v>112233.0551031773</v>
       </c>
       <c r="BV3">
-        <v>7264.504672705536</v>
+        <v>115618.5271876734</v>
       </c>
       <c r="BW3">
-        <v>7392.863060319303</v>
+        <v>118836.5687151337</v>
       </c>
       <c r="BX3">
-        <v>7511.73437800685</v>
+        <v>121936.5641470034</v>
       </c>
       <c r="BY3">
-        <v>7626.934151546816</v>
+        <v>124974.0590049784</v>
       </c>
       <c r="BZ3">
-        <v>7739.329339141153</v>
+        <v>127971.2270405394</v>
       </c>
       <c r="CA3">
-        <v>7846.772657066633</v>
+        <v>130903.6327687595</v>
       </c>
       <c r="CB3">
-        <v>7950.49612590804</v>
+        <v>133794.6133646451</v>
       </c>
       <c r="CC3">
-        <v>8052.581957801315</v>
+        <v>136678.4019835404</v>
       </c>
       <c r="CD3">
-        <v>8156.460852389543</v>
+        <v>139604.8634917428</v>
       </c>
       <c r="CE3">
-        <v>8266.749355064672</v>
+        <v>142630.1026423768</v>
       </c>
       <c r="CF3">
-        <v>8387.257748609574</v>
+        <v>145776.1440196695</v>
       </c>
       <c r="CG3">
-        <v>8523.192251775021</v>
+        <v>149098.4848708097</v>
       </c>
       <c r="CH3">
-        <v>8676.630971814753</v>
+        <v>152613.1320138867</v>
       </c>
       <c r="CI3">
-        <v>8847.069111754148</v>
+        <v>156330.009068432</v>
       </c>
       <c r="CJ3">
-        <v>9031.29143716721</v>
+        <v>160261.5756812558</v>
       </c>
       <c r="CK3">
-        <v>9222.270033292714</v>
+        <v>164364.9388000045</v>
       </c>
       <c r="CL3">
-        <v>9416.207138196711</v>
+        <v>168648.0557609751</v>
       </c>
       <c r="CM3">
-        <v>9609.707592195418</v>
+        <v>173062.1225170005</v>
       </c>
       <c r="CN3">
-        <v>9801.256793715749</v>
+        <v>177562.8112614585</v>
       </c>
       <c r="CO3">
-        <v>9990.253550253214</v>
+        <v>182122.929039668</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>29416021.22298668</v>
+        <v>2058513.65379853</v>
       </c>
       <c r="E4">
-        <v>59168564.70555401</v>
+        <v>3907584.38623723</v>
       </c>
       <c r="F4">
-        <v>91808924.92818676</v>
+        <v>5521795.873258231</v>
       </c>
       <c r="G4">
-        <v>124550977.7243607</v>
+        <v>7394218.288671336</v>
       </c>
       <c r="H4">
-        <v>154365455.4479107</v>
+        <v>9451822.211687345</v>
       </c>
       <c r="I4">
-        <v>183609744.6599061</v>
+        <v>11407407.66984042</v>
       </c>
       <c r="J4">
-        <v>215863547.4673854</v>
+        <v>13533530.46028179</v>
       </c>
       <c r="K4">
-        <v>252362764.4734592</v>
+        <v>15483726.17518461</v>
       </c>
       <c r="L4">
-        <v>288615480.5347571</v>
+        <v>17420851.34329411</v>
       </c>
       <c r="M4">
-        <v>327181424.4446929</v>
+        <v>20004538.29683235</v>
       </c>
       <c r="N4">
-        <v>368921700.4745178</v>
+        <v>22456392.81706905</v>
       </c>
       <c r="O4">
-        <v>407651493.6624718</v>
+        <v>24885115.47177207</v>
       </c>
       <c r="P4">
-        <v>450672471.183457</v>
+        <v>37473358.52399014</v>
       </c>
       <c r="Q4">
-        <v>495174903.5634067</v>
+        <v>50126003.66180001</v>
       </c>
       <c r="R4">
-        <v>541146210.9938935</v>
+        <v>62829404.7042085</v>
       </c>
       <c r="S4">
-        <v>593655021.0151623</v>
+        <v>102476436.2728676</v>
       </c>
       <c r="T4">
-        <v>647771514.1932687</v>
+        <v>142205343.4460512</v>
       </c>
       <c r="U4">
-        <v>703501833.6329125</v>
+        <v>182030085.7854519</v>
       </c>
       <c r="V4">
-        <v>760848663.4806632</v>
+        <v>221963251.3614978</v>
       </c>
       <c r="W4">
-        <v>819812157.717604</v>
+        <v>262015606.1204262</v>
       </c>
       <c r="X4">
-        <v>879859979.6688821</v>
+        <v>303272562.0512409</v>
       </c>
       <c r="Y4">
-        <v>941422749.5139015</v>
+        <v>344670147.4622702</v>
       </c>
       <c r="Z4">
-        <v>1004495084.652063</v>
+        <v>386205129.509027</v>
       </c>
       <c r="AA4">
-        <v>1069076654.132904</v>
+        <v>427890271.4645925</v>
       </c>
       <c r="AB4">
-        <v>1135175047.222619</v>
+        <v>469741798.530547</v>
       </c>
       <c r="AC4">
-        <v>1197071686.591385</v>
+        <v>481249893.0821732</v>
       </c>
       <c r="AD4">
-        <v>1260503085.720464</v>
+        <v>492970434.8990047</v>
       </c>
       <c r="AE4">
-        <v>1325476052.980046</v>
+        <v>504944307.7882877</v>
       </c>
       <c r="AF4">
-        <v>1391986595.140664</v>
+        <v>517159657.3555663</v>
       </c>
       <c r="AG4">
-        <v>1460041239.987885</v>
+        <v>529685159.2902981</v>
       </c>
       <c r="AH4">
-        <v>1528675277.744319</v>
+        <v>533024130.1879226</v>
       </c>
       <c r="AI4">
-        <v>1598930607.682371</v>
+        <v>536681397.23533</v>
       </c>
       <c r="AJ4">
-        <v>1670846513.100267</v>
+        <v>540870427.4940611</v>
       </c>
       <c r="AK4">
-        <v>1744477192.593511</v>
+        <v>545827819.9287996</v>
       </c>
       <c r="AL4">
-        <v>1819896762.533877</v>
+        <v>551761628.7467711</v>
       </c>
       <c r="AM4">
-        <v>1897137870.290184</v>
+        <v>563302965.323033</v>
       </c>
       <c r="AN4">
-        <v>1976232251.637286</v>
+        <v>576444516.0839067</v>
       </c>
       <c r="AO4">
-        <v>2057252959.127158</v>
+        <v>591451015.5837294</v>
       </c>
       <c r="AP4">
-        <v>2140259415.905282</v>
+        <v>608571125.4677519</v>
       </c>
       <c r="AQ4">
-        <v>2225110558.308005</v>
+        <v>627310891.0881447</v>
       </c>
       <c r="AR4">
-        <v>2311641633.147742</v>
+        <v>653489411.467249</v>
       </c>
       <c r="AS4">
-        <v>2399800089.622356</v>
+        <v>680540791.8407676</v>
       </c>
       <c r="AT4">
-        <v>2489524818.264835</v>
+        <v>708210907.1655997</v>
       </c>
       <c r="AU4">
-        <v>2580750340.708272</v>
+        <v>736213573.5866579</v>
       </c>
       <c r="AV4">
-        <v>2673988162.926421</v>
+        <v>764314433.7724922</v>
       </c>
       <c r="AW4">
-        <v>2768872701.761431</v>
+        <v>793899987.4108816</v>
       </c>
       <c r="AX4">
-        <v>2865362821.585384</v>
+        <v>822759163.6313758</v>
       </c>
       <c r="AY4">
-        <v>2963068861.869688</v>
+        <v>850193700.7518049</v>
       </c>
       <c r="AZ4">
-        <v>3061884937.0866</v>
+        <v>875725278.8190153</v>
       </c>
       <c r="BA4">
-        <v>3161940171.347796</v>
+        <v>899841855.5468838</v>
       </c>
       <c r="BB4">
-        <v>3263357762.234392</v>
+        <v>921857228.4445156</v>
       </c>
       <c r="BC4">
-        <v>3366254656.038841</v>
+        <v>942974434.0544682</v>
       </c>
       <c r="BD4">
-        <v>3470636253.530916</v>
+        <v>963222999.2102909</v>
       </c>
       <c r="BE4">
-        <v>3576531476.52579</v>
+        <v>982782240.3333066</v>
       </c>
       <c r="BF4">
-        <v>3684014748.291757</v>
+        <v>1001931003.410486</v>
       </c>
       <c r="BG4">
-        <v>3793149455.737668</v>
+        <v>1020330630.334762</v>
       </c>
       <c r="BH4">
-        <v>3904119078.741412</v>
+        <v>1038986664.90683</v>
       </c>
       <c r="BI4">
-        <v>4017000441.770343</v>
+        <v>1058400395.247362</v>
       </c>
       <c r="BJ4">
-        <v>4131861141.640098</v>
+        <v>1078990362.75666</v>
       </c>
       <c r="BK4">
-        <v>4248754858.168934</v>
+        <v>1100986092.580101</v>
       </c>
       <c r="BL4">
-        <v>4367693167.380099</v>
+        <v>1124373998.545837</v>
       </c>
       <c r="BM4">
-        <v>4488747517.943974</v>
+        <v>1149387182.737258</v>
       </c>
       <c r="BN4">
-        <v>4611850207.694087</v>
+        <v>1175926406.312496</v>
       </c>
       <c r="BO4">
-        <v>4736923413.349876</v>
+        <v>1203791491.892457</v>
       </c>
       <c r="BP4">
-        <v>4863921351.22356</v>
+        <v>1232660553.826258</v>
       </c>
       <c r="BQ4">
-        <v>4992881254.057739</v>
+        <v>1262236448.965314</v>
       </c>
       <c r="BR4">
-        <v>5123833935.879936</v>
+        <v>1292379138.685078</v>
       </c>
       <c r="BS4">
-        <v>5256753940.930012</v>
+        <v>1322902888.1785</v>
       </c>
       <c r="BT4">
-        <v>5391604570.449162</v>
+        <v>1353525539.394216</v>
       </c>
       <c r="BU4">
-        <v>5528319180.664381</v>
+        <v>1383832762.774595</v>
       </c>
       <c r="BV4">
-        <v>5666831897.489498</v>
+        <v>1413258699.832099</v>
       </c>
       <c r="BW4">
-        <v>5807154723.409583</v>
+        <v>1441848329.585241</v>
       </c>
       <c r="BX4">
-        <v>5949333843.946577</v>
+        <v>1469828644.080315</v>
       </c>
       <c r="BY4">
-        <v>6093422851.869206</v>
+        <v>1497446807.595083</v>
       </c>
       <c r="BZ4">
-        <v>6239437318.471091</v>
+        <v>1524684270.831768</v>
       </c>
       <c r="CA4">
-        <v>6387413668.933725</v>
+        <v>1551254352.109545</v>
       </c>
       <c r="CB4">
-        <v>6537421856.335696</v>
+        <v>1577449343.226337</v>
       </c>
       <c r="CC4">
-        <v>6689495987.444914</v>
+        <v>1603373344.432569</v>
       </c>
       <c r="CD4">
-        <v>6843683801.157911</v>
+        <v>1629179378.337825</v>
       </c>
       <c r="CE4">
-        <v>7000039958.063312</v>
+        <v>1655042000.263284</v>
       </c>
       <c r="CF4">
-        <v>7158653194.188352</v>
+        <v>1680919090.382865</v>
       </c>
       <c r="CG4">
-        <v>7319633032.940635</v>
+        <v>1707581834.485595</v>
       </c>
       <c r="CH4">
-        <v>7483010216.045995</v>
+        <v>1735186874.037048</v>
       </c>
       <c r="CI4">
-        <v>7648793733.037265</v>
+        <v>1763814012.171661</v>
       </c>
       <c r="CJ4">
-        <v>7816966098.514647</v>
+        <v>1793480544.110105</v>
       </c>
       <c r="CK4">
-        <v>7987491126.566318</v>
+        <v>1823394500.027987</v>
       </c>
       <c r="CL4">
-        <v>8160411305.63039</v>
+        <v>1854120976.334051</v>
       </c>
       <c r="CM4">
-        <v>8335694762.312276</v>
+        <v>1885477597.479636</v>
       </c>
       <c r="CN4">
-        <v>8513322412.935688</v>
+        <v>1917306129.424327</v>
       </c>
       <c r="CO4">
-        <v>8693279342.753208</v>
+        <v>1949482917.763657</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1883239.867233883</v>
+        <v>2799009.773418657</v>
       </c>
       <c r="E5">
-        <v>2990117.124543576</v>
+        <v>4673505.682504508</v>
       </c>
       <c r="F5">
-        <v>3545218.255436689</v>
+        <v>6425791.400847927</v>
       </c>
       <c r="G5">
-        <v>3886875.870569432</v>
+        <v>8114819.279426521</v>
       </c>
       <c r="H5">
-        <v>4207530.338541428</v>
+        <v>9735621.664268445</v>
       </c>
       <c r="I5">
-        <v>4436128.958085805</v>
+        <v>11760772.95815265</v>
       </c>
       <c r="J5">
-        <v>4624879.424368945</v>
+        <v>13989024.20254566</v>
       </c>
       <c r="K5">
-        <v>4869934.452937495</v>
+        <v>15928291.08212103</v>
       </c>
       <c r="L5">
-        <v>5312933.048258248</v>
+        <v>17723025.1349687</v>
       </c>
       <c r="M5">
-        <v>5706024.580807383</v>
+        <v>19731432.64951205</v>
       </c>
       <c r="N5">
-        <v>6204370.920284811</v>
+        <v>21843166.10584839</v>
       </c>
       <c r="O5">
-        <v>6829673.755234953</v>
+        <v>24593277.58219855</v>
       </c>
       <c r="P5">
-        <v>10798566.88174194</v>
+        <v>45826461.30962188</v>
       </c>
       <c r="Q5">
-        <v>14786737.01077577</v>
+        <v>67093440.71922892</v>
       </c>
       <c r="R5">
-        <v>18798671.49903056</v>
+        <v>88403330.61104867</v>
       </c>
       <c r="S5">
-        <v>31410489.32385089</v>
+        <v>158985776.0496568</v>
       </c>
       <c r="T5">
-        <v>44055874.81370259</v>
+        <v>229633949.6175943</v>
       </c>
       <c r="U5">
-        <v>56739709.2278633</v>
+        <v>300361823.2001923</v>
       </c>
       <c r="V5">
-        <v>69466552.83243866</v>
+        <v>371185713.092802</v>
       </c>
       <c r="W5">
-        <v>82240460.63958482</v>
+        <v>442125336.2431467</v>
       </c>
       <c r="X5">
-        <v>94500585.60343908</v>
+        <v>516848288.3610494</v>
       </c>
       <c r="Y5">
-        <v>106814310.4395137</v>
+        <v>591744303.5498499</v>
       </c>
       <c r="Z5">
-        <v>119184690.065415</v>
+        <v>666856971.2346209</v>
       </c>
       <c r="AA5">
-        <v>131615653.9515088</v>
+        <v>742245599.3019774</v>
       </c>
       <c r="AB5">
-        <v>144113386.4307142</v>
+        <v>817991057.2817653</v>
       </c>
       <c r="AC5">
-        <v>146676107.7558843</v>
+        <v>839885537.9132112</v>
       </c>
       <c r="AD5">
-        <v>149332945.2099406</v>
+        <v>862392760.6161922</v>
       </c>
       <c r="AE5">
-        <v>152110148.1266822</v>
+        <v>885704646.2512054</v>
       </c>
       <c r="AF5">
-        <v>155045778.9929672</v>
+        <v>910066887.6821185</v>
       </c>
       <c r="AG5">
-        <v>158191584.9995737</v>
+        <v>935785251.0362498</v>
       </c>
       <c r="AH5">
-        <v>159719774.4521219</v>
+        <v>945030885.7683091</v>
       </c>
       <c r="AI5">
-        <v>161603665.4169808</v>
+        <v>956174403.6161592</v>
       </c>
       <c r="AJ5">
-        <v>163933096.0018282</v>
+        <v>969641501.9885557</v>
       </c>
       <c r="AK5">
-        <v>166803430.7225928</v>
+        <v>986224460.224602</v>
       </c>
       <c r="AL5">
-        <v>170308942.6082705</v>
+        <v>1006462818.365809</v>
       </c>
       <c r="AM5">
-        <v>174534844.7740546</v>
+        <v>1038523037.84022</v>
       </c>
       <c r="AN5">
-        <v>179548484.3540668</v>
+        <v>1075114854.704058</v>
       </c>
       <c r="AO5">
-        <v>185390380.0557598</v>
+        <v>1116504491.716232</v>
       </c>
       <c r="AP5">
-        <v>192065933.9859781</v>
+        <v>1162776696.059968</v>
       </c>
       <c r="AQ5">
-        <v>199538910.7596053</v>
+        <v>1213792618.247937</v>
       </c>
       <c r="AR5">
-        <v>207727974.2865344</v>
+        <v>1279844450.98689</v>
       </c>
       <c r="AS5">
-        <v>216507353.9745705</v>
+        <v>1349610629.631589</v>
       </c>
       <c r="AT5">
-        <v>225712390.7666993</v>
+        <v>1422222455.8461</v>
       </c>
       <c r="AU5">
-        <v>235149916.614621</v>
+        <v>1496636001.73018</v>
       </c>
       <c r="AV5">
-        <v>245889821.1845057</v>
+        <v>1571707415.795926</v>
       </c>
       <c r="AW5">
-        <v>256810941.8391886</v>
+        <v>1649405289.325853</v>
       </c>
       <c r="AX5">
-        <v>267365081.2923699</v>
+        <v>1725530152.26766</v>
       </c>
       <c r="AY5">
-        <v>277398122.3467285</v>
+        <v>1799166754.431233</v>
       </c>
       <c r="AZ5">
-        <v>286799324.3365325</v>
+        <v>1869624902.066476</v>
       </c>
       <c r="BA5">
-        <v>295507753.0336924</v>
+        <v>1936483391.93874</v>
       </c>
       <c r="BB5">
-        <v>303328923.4916438</v>
+        <v>1997794214.16678</v>
       </c>
       <c r="BC5">
-        <v>310489944.0099422</v>
+        <v>2055541301.434015</v>
       </c>
       <c r="BD5">
-        <v>317077612.2732819</v>
+        <v>2110167250.64776</v>
       </c>
       <c r="BE5">
-        <v>323215528.8368018</v>
+        <v>2162354307.523739</v>
       </c>
       <c r="BF5">
-        <v>329052657.7513599</v>
+        <v>2212966993.031869</v>
       </c>
       <c r="BG5">
-        <v>334566843.4954028</v>
+        <v>2261975796.709391</v>
       </c>
       <c r="BH5">
-        <v>340100328.4797346</v>
+        <v>2311390158.863656</v>
       </c>
       <c r="BI5">
-        <v>345798527.0990295</v>
+        <v>2362172443.36427</v>
       </c>
       <c r="BJ5">
-        <v>351784411.060467</v>
+        <v>2415180778.375955</v>
       </c>
       <c r="BK5">
-        <v>358153699.0532941</v>
+        <v>2471125232.606115</v>
       </c>
       <c r="BL5">
-        <v>364835736.949549</v>
+        <v>2530403062.334176</v>
       </c>
       <c r="BM5">
-        <v>372007248.9248488</v>
+        <v>2593495311.892294</v>
       </c>
       <c r="BN5">
-        <v>379681056.686457</v>
+        <v>2660549681.263412</v>
       </c>
       <c r="BO5">
-        <v>387845876.7678511</v>
+        <v>2731520871.457625</v>
       </c>
       <c r="BP5">
-        <v>396468677.9923823</v>
+        <v>2806182964.289512</v>
       </c>
       <c r="BQ5">
-        <v>405401403.359982</v>
+        <v>2884182896.243052</v>
       </c>
       <c r="BR5">
-        <v>414672239.0990633</v>
+        <v>2964976530.780239</v>
       </c>
       <c r="BS5">
-        <v>424201280.0073615</v>
+        <v>3047959587.184606</v>
       </c>
       <c r="BT5">
-        <v>433900679.7849115</v>
+        <v>3132476258.167452</v>
       </c>
       <c r="BU5">
-        <v>443679122.4713613</v>
+        <v>3217860585.718729</v>
       </c>
       <c r="BV5">
-        <v>453352893.288196</v>
+        <v>3303191433.291505</v>
       </c>
       <c r="BW5">
-        <v>462931923.6611675</v>
+        <v>3388188363.425015</v>
       </c>
       <c r="BX5">
-        <v>472343655.6750442</v>
+        <v>3472387015.667512</v>
       </c>
       <c r="BY5">
-        <v>481531351.7094655</v>
+        <v>3555450346.34883</v>
       </c>
       <c r="BZ5">
-        <v>490457902.6405857</v>
+        <v>3637184296.792025</v>
       </c>
       <c r="CA5">
-        <v>499009959.889518</v>
+        <v>3717034103.682203</v>
       </c>
       <c r="CB5">
-        <v>507293736.1654649</v>
+        <v>3795606301.052294</v>
       </c>
       <c r="CC5">
-        <v>515338605.9294462</v>
+        <v>3873127649.971994</v>
       </c>
       <c r="CD5">
-        <v>523192249.383737</v>
+        <v>3949932252.789543</v>
       </c>
       <c r="CE5">
-        <v>530915917.2905269</v>
+        <v>4026433559.445744</v>
       </c>
       <c r="CF5">
-        <v>538467914.0156969</v>
+        <v>4102219438.917681</v>
       </c>
       <c r="CG5">
-        <v>546030612.7543454</v>
+        <v>4178637661.599202</v>
       </c>
       <c r="CH5">
-        <v>553672341.1738739</v>
+        <v>4256144614.39061</v>
       </c>
       <c r="CI5">
-        <v>561453832.3867924</v>
+        <v>4335149607.963175</v>
       </c>
       <c r="CJ5">
-        <v>569424790.9287421</v>
+        <v>4415991448.091261</v>
       </c>
       <c r="CK5">
-        <v>577469974.7105547</v>
+        <v>4497551177.407856</v>
       </c>
       <c r="CL5">
-        <v>585762804.3120854</v>
+        <v>4581352409.440901</v>
       </c>
       <c r="CM5">
-        <v>594310323.5460529</v>
+        <v>4667447256.887025</v>
       </c>
       <c r="CN5">
-        <v>603105529.8862967</v>
+        <v>4755789647.121753</v>
       </c>
       <c r="CO5">
-        <v>612128845.9898589</v>
+        <v>4846244237.292663</v>
       </c>
     </row>
   </sheetData>
